--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="LeetCode Summary - LeetCode Pro" sheetId="1" r:id="rId4"/>
-    <sheet name="Tips" sheetId="2" r:id="rId5"/>
-    <sheet name="New Free Problems - LeetCode Pr" sheetId="3" r:id="rId6"/>
-    <sheet name="New Problems in Book" sheetId="4" r:id="rId7"/>
-    <sheet name="Other Classic Problems" sheetId="5" r:id="rId8"/>
+    <sheet name="LeetCode Summary - LeetCode Pro" sheetId="1" r:id="rId1"/>
+    <sheet name="Tips" sheetId="2" r:id="rId2"/>
+    <sheet name="New Free Problems - LeetCode Pr" sheetId="3" r:id="rId3"/>
+    <sheet name="New Problems in Book" sheetId="4" r:id="rId4"/>
+    <sheet name="Other Classic Problems" sheetId="5" r:id="rId5"/>
+    <sheet name="LinkedIn" sheetId="6" r:id="rId6"/>
+    <sheet name="system design" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="805">
   <si>
     <t>LeetCode Problem Statistics</t>
   </si>
@@ -639,7 +648,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -1351,7 +1360,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -1675,7 +1684,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -2123,7 +2132,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -3925,7 +3934,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -7820,7 +7829,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -8422,7 +8431,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -9103,7 +9112,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -10808,7 +10817,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -11920,7 +11929,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -12510,7 +12519,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -12867,7 +12876,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -13869,7 +13878,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -13894,7 +13903,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -14434,7 +14443,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -14704,7 +14713,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -15786,7 +15795,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -16171,7 +16180,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -17212,7 +17221,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -17226,7 +17235,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -17458,7 +17467,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -17854,7 +17863,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -18028,7 +18037,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -21112,7 +21121,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -21729,7 +21738,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -23047,7 +23056,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -24201,7 +24210,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -24412,7 +24421,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -24540,7 +24549,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -24922,7 +24931,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -26800,7 +26809,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -27243,7 +27252,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -31082,15 +31091,492 @@
       <t xml:space="preserve">    }</t>
     </r>
   </si>
+  <si>
+    <t>1. Iterating through a k-dimensional array given size of each dimension in an array.</t>
+  </si>
+  <si>
+    <t>2. Binary Tree Upside down (Leetcode 156)</t>
+  </si>
+  <si>
+    <t>3. Count the number of occurrences of an element in a sorted array (Binary Search)</t>
+  </si>
+  <si>
+    <t>4. Determine if a string is a number (handle signed / unsigned, floating point, any number of digits) (Leetcode 65 without considering exp)</t>
+  </si>
+  <si>
+    <t>5. Isomorphic strings (Leetcode 205)</t>
+  </si>
+  <si>
+    <t>6. Two-sums (Leetcode 1, 167, 170)</t>
+  </si>
+  <si>
+    <t>7. Parenthesis matching (Leetcode 20)</t>
+  </si>
+  <si>
+    <t>8. Search a sorted array for the first element larger than k. (Binary search)</t>
+  </si>
+  <si>
+    <t>9. Create a stack with the usual push(), pop(), but with an additional function getMiddle() that returns the middle element of the stack in constant time. (Vector-implementation) (See also Leetcode 155)</t>
+  </si>
+  <si>
+    <t>10. Implement pow(a,b) (Leetcode 50)</t>
+  </si>
+  <si>
+    <t>11. Shortest word distance (Leetcode 243, 244, 245)</t>
+  </si>
+  <si>
+    <t>12. Given a nested list of integers, returns the sum of all integers in the list weighted by their depth For example, given the list {{1,1},2,{1,1}} the function should return 10 (four 1’s at depth 2, one 2 at depth 1), Given the list {1,{4,{6}}} the function should return 27 (one 1 at depth 1, one 4 at depth 2, and one 6 at depth 3). (See myblog)</t>
+  </si>
+  <si>
+    <t>13. Three segments of lengths A, B, C form a triangle iff A + B &gt; C, B + C &gt; A, A + C &gt; B e.g. * 6, 4, 5 can form a triangle * 10, 2, 7 can’t. Given a list of segments lengths algorithm should find at least one triplet of segments that form a triangle (if any). Method should return an array of either: * – 3 elements: segments that form a triangle (i.e. satisfy the condition above) * – empty array if there are no such segments (sort)</t>
+  </si>
+  <si>
+    <t>14. How to apply the function of finding a string in the text of vim editor? (KMP)</t>
+  </si>
+  <si>
+    <t>15. Maximum product subset (Leetcode 152)</t>
+  </si>
+  <si>
+    <t>16. Given an array of numbers , replace each number with the product of all the numbers divided by the number at that index without using the division operator (Leetcode 238)</t>
+  </si>
+  <si>
+    <t>17. Print a binary tree level by level (Leetcode 102, 107)</t>
+  </si>
+  <si>
+    <t>18. Print factors for number (Leetcode 254)</t>
+  </si>
+  <si>
+    <t>19. Given an input string and a target string, find the minimum substring of the input string that contains all of the characters in the target string (Leetcode 76 *)</t>
+  </si>
+  <si>
+    <t>20. Two sorted array merge into one sorted array. (Leetcode 88)</t>
+  </si>
+  <si>
+    <t>21. Implement sqrt() (Leetcode 69)</t>
+  </si>
+  <si>
+    <t>22. Maximum subarray (Leetcode 53) (Try both linear and nlogn solutions)</t>
+  </si>
+  <si>
+    <t>23. Text justification (Leetcode 68 *)</t>
+  </si>
+  <si>
+    <t>24. Colon a tree for mirror (Leetcode 226)</t>
+  </si>
+  <si>
+    <t>25. Merge Intervals (Leetcode 56)</t>
+  </si>
+  <si>
+    <t>26. Lowest common ancestor in tree (with or without parent pointers) (Leetcode 235,236)</t>
+  </si>
+  <si>
+    <t>27. Permutation of a string (Leetcode 46,47,31,60*)</t>
+  </si>
+  <si>
+    <t>28. Find whether a given binary tree is image of the other one (Leetcode 100,101)</t>
+  </si>
+  <si>
+    <t>29. Binary tree serialization (Leetcode 297*)</t>
+  </si>
+  <si>
+    <t>30. Write a log function (math, use the sqrt function)</t>
+  </si>
+  <si>
+    <t>31. Reverse double linked list (Leetcode 206)</t>
+  </si>
+  <si>
+    <t>32. Implement parseInt() (Leetcode 8)</t>
+  </si>
+  <si>
+    <t>33. You have bunch of numbers coming in, and a given a window size, how would you save numbers so that you can return number if present in window and provide average for current window. (Queue + Hash table + running sum)</t>
+  </si>
+  <si>
+    <t>34. Reverse words in a string (Leetcode 151, 186)</t>
+  </si>
+  <si>
+    <t>35. Implement decimal to roman and vice versa. (Leetcode 12,13)</t>
+  </si>
+  <si>
+    <t>36. Multi-threading problem – Consumer/Producer Problem (Check C++11 mutex, unique_lock, lock_guard, condition_variable)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Producer%E2%80%93consumer_problem</t>
+  </si>
+  <si>
+    <t>37. Find the closest K points given a set of N points. (KD-tree optimally, heap for interview)</t>
+  </si>
+  <si>
+    <t>Public interface PointsOnAPlane {</t>
+  </si>
+  <si>
+    <t>/** * Stores a given point in an internal data structure */</t>
+  </si>
+  <si>
+    <t>void addPoint(Point point);</t>
+  </si>
+  <si>
+    <t>/** * For given ‘center’ point returns a subset of ‘m’ stored points that are * closer to the center than others. * * E.g. Stored: (0, 1) (0, 2) (0, 3) (0, 4) (0, 5) * * findNearest(new Point(0, 0), 3) -&gt; (0, 1), (0, 2), (0, 3) */</t>
+  </si>
+  <si>
+    <t>vector findNearest(Point center, int m);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>38. Word Ladder (Leetcode 126,127)</t>
+  </si>
+  <si>
+    <t>39. Given a sorted array with duplicates and a query number, find the range of the number. (Binary search)</t>
+  </si>
+  <si>
+    <t>40. Celebrity (influencer) (Leetcode 277)</t>
+  </si>
+  <si>
+    <t>41. Parse the IP in a file (grep – regular expression)</t>
+  </si>
+  <si>
+    <t>grep -E -w -o “((25[0-5]|2[0-4][0-9]|[1]?[0-9][0-9]?)\.){3}(25[0-5]|2[0-4][0-9]|[1]?[0-9][0-9]?)” test.txt</t>
+  </si>
+  <si>
+    <t>42. Check if it is a BST. (Leetcode 98)</t>
+  </si>
+  <si>
+    <t>43. Multi-thread non-blocking thread-safe queue (See Question 36)</t>
+  </si>
+  <si>
+    <t>44. Climbing Stairs (Leetcode 70)</t>
+  </si>
+  <si>
+    <t>45. Use two stacks to implement a queue (Leetcode 232)</t>
+  </si>
+  <si>
+    <t>46. Implement Circular Queues</t>
+  </si>
+  <si>
+    <t>47. Minimal spanning tree (Prim and Kruskal’s algorithms)</t>
+  </si>
+  <si>
+    <t>48. Evaluate Reverse Polish Notation (Leetcode 150)</t>
+  </si>
+  <si>
+    <t>49. Program an iterator for a Linked List which may include nodes which are nested within other nodes. i.e. (1)-&gt;(2)-&gt;(3(4))-&gt;((5)(6)). Iterator returns 1-&gt;2-&gt;3-&gt;4-&gt;5-&gt;6 (deque)</t>
+  </si>
+  <si>
+    <t>50. Searching a matrix sorted row-wisely and column-wisely. (Leetcode 240, 74)</t>
+  </si>
+  <si>
+    <t>51. Find the intersection numbers between two sorted arrays. (Merge sort)</t>
+  </si>
+  <si>
+    <t>52. Given an interface called IntStream with methods ‘bool hasNext()’ and ‘int next()’, implement the function ‘IntStream merge(IntStream[] streams)’ where each input IntStream produces strictly increasing, possibly infinite number of, integers, and the resultant IntStream also produces strictly increasing integers by merging the input streams. The interviewer also provides a simple test harness that prints the first 5000 integers from that function. (Heap)</t>
+  </si>
+  <si>
+    <t>53. Write a routine to find all collinear points in a plane. Constraint: The time complexity cannot be greater than O (n^2). (use ratio to record slope)</t>
+  </si>
+  <si>
+    <t>54. Find the second largest element in a binary search tree.(Stack)</t>
+  </si>
+  <si>
+    <t>55. Implement a routine which returns the set of integers in {1…100} divisible without remainder by 3 but not by 9.</t>
+  </si>
+  <si>
+    <t>56. Given a grid of size m by n, write an algorithm that computes all paths from 0,0 to m,n such that you can always step horizontally or vertically but cannot reverse. (Leetcode 62,63)</t>
+  </si>
+  <si>
+    <t>57. Write an algorithm that determines whether or not two binary trees are equivalent. (Leetcode 100)</t>
+  </si>
+  <si>
+    <t>58. Find k-th largest element in an unsorted array (selection algorithm)</t>
+  </si>
+  <si>
+    <t>59. Find out k most frequent numbers from incoming stream of numbers one the fly.</t>
+  </si>
+  <si>
+    <t>60. Given a large document and a short pattern consisting of a few words (eg. W1 W2 W3), find the shortest string that has all the words in any order (for eg. W2 foo bar dog W1 cat W3 — is a valid pattern). (Sliding window, similar to Leetcode 76)</t>
+  </si>
+  <si>
+    <t>61. Repeated DNA sequences (Leetcode 187)</t>
+  </si>
+  <si>
+    <t>62. Segment a long string into a set of valid words using a dictionary. Return false if the string cannot be segmented. What is the complexity of your solution? O(n^2) (Leetcode 139, 140)</t>
+  </si>
+  <si>
+    <t>63. Give an array that has only the values 1, 2 or 3, sort the array in place. (Leetcode 75)</t>
+  </si>
+  <si>
+    <t>64. Implement a O(1) min function for Stack (Leetcode 155)</t>
+  </si>
+  <si>
+    <t>65. Find the 100 most frequently occurring words in a set of documents (Trie + minHeap)</t>
+  </si>
+  <si>
+    <t>66. Given two sorted lists, find the union and intersection of them. Both results should be sorted. (Merge sort)</t>
+  </si>
+  <si>
+    <t>67. Shuffle an array such that every result is equally like.</t>
+  </si>
+  <si>
+    <t>68. Suppose you have a long flowerbed in which some of the plots are planted and some are not. Given the fact that flowers cannot be planted in adjacent plots, return how many new flowers can be planted without violating the no-adjacent-flowers rule.</t>
+  </si>
+  <si>
+    <t>Input: 1, 0, 0, 0, 0, 0, 1, 0, 0</t>
+  </si>
+  <si>
+    <t>Output: 3</t>
+  </si>
+  <si>
+    <t>Input: 1, 0, 0, 1, 0, 0, 1, 0, 0</t>
+  </si>
+  <si>
+    <t>Output: 1</t>
+  </si>
+  <si>
+    <t>69. Given a list of child-&gt;parent relationships, build a binary tree out of it. All of the element IDs inside the tree are unique.</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>Given the following relationships:</t>
+  </si>
+  <si>
+    <t>Child Parent isLeft</t>
+  </si>
+  <si>
+    <t>15 20 true</t>
+  </si>
+  <si>
+    <t>19 80 true</t>
+  </si>
+  <si>
+    <t>17 20 false</t>
+  </si>
+  <si>
+    <t>16 80 false</t>
+  </si>
+  <si>
+    <t>80 50 false</t>
+  </si>
+  <si>
+    <t>50 null false</t>
+  </si>
+  <si>
+    <t>20 50 true</t>
+  </si>
+  <si>
+    <t>You should return the following tree structure</t>
+  </si>
+  <si>
+    <t>20 80</t>
+  </si>
+  <si>
+    <t>15 17 19 16</t>
+  </si>
+  <si>
+    <t>struct Relation {</t>
+  </si>
+  <si>
+    <t>int child; int parent; bool isLeft;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>struct TreeNode {</t>
+  </si>
+  <si>
+    <t>int val; TreeNode* left; TreeNode* right;</t>
+  </si>
+  <si>
+    <t>TreeNode* build_tree(vector&amp; arr);</t>
+  </si>
+  <si>
+    <t>(hash table)</t>
+  </si>
+  <si>
+    <t>70. Write a function to compute the maximum length palindromic subsequence of an array. A sub-sequence of an array is a sequence which can be constructed by removing elements of the array. (Dynamic Programming)</t>
+  </si>
+  <si>
+    <t>Ex. Given [4, 1, 2, 3, 4, 5, 6, 7, 4, 3, 4, 4, 4, 4, 4, 4, 4] should return 10 (all 4’s)</t>
+  </si>
+  <si>
+    <t>71. There is a particular sequence that only uses numbers 1, 2, 3, 4 and no two adjacent numbers are the same. Write a program that given n1 1s, n2 2s, n3 3s, n4 4s will output the number of such sequences using all these numbers. (Dynamic Programming O(n^4))</t>
+  </si>
+  <si>
+    <t>72. In the 100 game, two players take turns adding, to a running total, any integer from 1 … 10. The player who first causes the running total to reach or exceed 100 wins. What if we change the game so that players cannot re-use integers? For example, if two players might take turns drawing from a common pool of numbers of 1…15 without replacement until they reach a total &gt;= 100. This problem is to write a program that determines which player would win with ideal play.</t>
+  </si>
+  <si>
+    <t>Bool canWin(int maxChooseInteger, int desiredTotal); (backtrace+ memorization)</t>
+  </si>
+  <si>
+    <t>73. Write a program that gives count of common characters presented in an array of strings. For example: given the following three strings:</t>
+  </si>
+  <si>
+    <t>aghkafgkit</t>
+  </si>
+  <si>
+    <t>dfghako</t>
+  </si>
+  <si>
+    <t>qwemnaarkf</t>
+  </si>
+  <si>
+    <t>The output should be 3. Because the characters a, f and k are present in all 3 strings.</t>
+  </si>
+  <si>
+    <t>(Bit manipulation)</t>
+  </si>
+  <si>
+    <t>74. Implement the integral part logn base 2 with bit manipulations. (find the leading bit)</t>
+  </si>
+  <si>
+    <t>75. Consider this string representation for binary trees. Each node is of the form (lr), where l represents the left child and r represents the right child. If l is the character 0, then there is no left child. Similarly, if r is the character 0, then there is no right child. Otherwise, the child can be a node of the form (lr), and the representation continues recursively. For example: (00) is a tree that consists of one node. ((00)0) is a two node tree in which the root has a left child, and the right child is a leaf. ((00)(00)) is a three-node tree, with a root, a left and a right child.</t>
+  </si>
+  <si>
+    <t>Write a function that takes as input such a string, and returns -1 if the string is malformed, and the depth of the tree if the string is well-formed.</t>
+  </si>
+  <si>
+    <t>For instance:</t>
+  </si>
+  <si>
+    <t>‘(00)’ -&gt; 0, ‘((00)0)’ -&gt; 1, ‘((00)(00))’ -&gt; 1, ((00)(0(00))) -&gt; 2, ((00)(0(0(00)))) -&gt; 3, ‘x’ -&gt; -1, ‘0’ -&gt; -1, ‘()’ -&gt; -1, ‘(0)’ -&gt; -1, ‘(00)x’ -&gt; -1, ‘(0p)’ -&gt; -1</t>
+  </si>
+  <si>
+    <t>(Stack)</t>
+  </si>
+  <si>
+    <t>76. Provide an implementation of the following interface:</t>
+  </si>
+  <si>
+    <t>Class Powers {</t>
+  </si>
+  <si>
+    <t>Public:</t>
+  </si>
+  <si>
+    <t>long next();</t>
+  </si>
+  <si>
+    <t>void reset();</t>
+  </si>
+  <si>
+    <t>Next function: returns the next integer a in the arithemtic sequence of integers where a = m^n, m &gt; 1, n &gt; 1, and m and n are both integers. Thus, the first few outputs will be 4, 8, 9, 16, 25, 27, 32, 36 etc.</t>
+  </si>
+  <si>
+    <t>Reset function: resets the sequence to the beginning, such that the next call to next() will return 4. (Heap + don’t add new power base until the last element is used)</t>
+  </si>
+  <si>
+    <t>77. Write a program to find the element in an array that is repeated more than half number of times. Return -1 if no such element is found. (Leetcode 169)</t>
+  </si>
+  <si>
+    <t>1. Web analytic: How to count the number of active users in a month, a day or a hour?</t>
+  </si>
+  <si>
+    <t>https://engineering.helpshift.com/2014/active-users/</t>
+  </si>
+  <si>
+    <t>2. How to design Google document which allows collaborative editing in realtime?</t>
+  </si>
+  <si>
+    <t>https://neil.fraser.name/writing/sync/</t>
+  </si>
+  <si>
+    <t>3. Best Practices to building something like a News feed.</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/Software-Engineering-Best-Practices/What-are-the-best-practices-for-building-something-like-a-News-Feed</t>
+  </si>
+  <si>
+    <t>http://www.slideshare.net/nkallen/q-con-3770885</t>
+  </si>
+  <si>
+    <t>http://highscalability.com/blog/2013/7/8/the-architecture-twitter-uses-to-deal-with-150m-active-users.html</t>
+  </si>
+  <si>
+    <t>http://www.slideshare.net/danmckinley/etsy-activity-feeds-architecture</t>
+  </si>
+  <si>
+    <t>4. Instant Search Suggestion</t>
+  </si>
+  <si>
+    <t>Use Trie, count the frequency of each word in the leaf nodes, and cache the top-k results at each prefix nodes.</t>
+  </si>
+  <si>
+    <t>5. Auto-correction when search keywords.</t>
+  </si>
+  <si>
+    <t>– If the word is in the dictionary, do nothing.</t>
+  </si>
+  <si>
+    <t>– Otherwise</t>
+  </si>
+  <si>
+    <t>– Naive solution: Compute the edit distance between the misspelled word and all words in the dictionary, pick the most popular (frequent) word with the edit distance smaller than a threshold.</t>
+  </si>
+  <si>
+    <t>– When users made correction, store the corresponding misspelled word and corrected word in a table for future quick reference.</t>
+  </si>
+  <si>
+    <t>– Artificially generate a few variants of the misspelled word by inserting/deleting/swapping/modifying a few letters, check whether any of the variants exists in the dictionary.</t>
+  </si>
+  <si>
+    <t>6. Implement a Google search</t>
+  </si>
+  <si>
+    <t>Blog for implementing search engine from indexing to ranking/</t>
+  </si>
+  <si>
+    <t>7. Recommendation System</t>
+  </si>
+  <si>
+    <t>Tutorial Slides for recommendation system</t>
+  </si>
+  <si>
+    <t>Hulu recommendation system</t>
+  </si>
+  <si>
+    <t>8. Web Crawler</t>
+  </si>
+  <si>
+    <t>Shingling: Introduction to Information Retrieval – Chapter 19</t>
+  </si>
+  <si>
+    <t>Introduction to Information Retrieval – Chapter 20</t>
+  </si>
+  <si>
+    <t>9. Facebook Chat</t>
+  </si>
+  <si>
+    <t>Facebook Chat with Erlang</t>
+  </si>
+  <si>
+    <t>Facebook Chat Page</t>
+  </si>
+  <si>
+    <t>1. How to design Twitter?</t>
+  </si>
+  <si>
+    <t>2. How to design Google?</t>
+  </si>
+  <si>
+    <t>3. How to design the search suggestions pop out when you type the keywords in the Google search box?</t>
+  </si>
+  <si>
+    <t>4. How to design Youtube?</t>
+  </si>
+  <si>
+    <t>5. How to design Google news, which aggregates the world’s news by topic?</t>
+  </si>
+  <si>
+    <t>6. How to design Facebook?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -31107,7 +31593,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -31123,13 +31609,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -31138,6 +31624,23 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -31184,93 +31687,161 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffff2c21"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFFF2C21"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -31462,7 +32033,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -31471,7 +32042,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -31480,7 +32051,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -31489,7 +32060,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -31498,7 +32069,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -31507,7 +32078,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -31619,8 +32190,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -31628,14 +32199,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -31654,7 +32225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31662,7 +32233,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -31690,7 +32261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31716,7 +32287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31742,7 +32313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31768,7 +32339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31794,7 +32365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31820,7 +32391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31846,7 +32417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31872,7 +32443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31898,7 +32469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31911,9 +32482,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -31929,7 +32506,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -31948,7 +32525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -31974,7 +32551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32000,7 +32577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32026,7 +32603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32052,7 +32629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32078,7 +32655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32104,7 +32681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32130,7 +32707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32156,7 +32733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32182,7 +32759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32195,9 +32772,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -32210,7 +32793,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -32229,7 +32812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32259,7 +32842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32285,7 +32868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32311,7 +32894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32337,7 +32920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32363,7 +32946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32389,7 +32972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32415,7 +32998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32441,7 +33024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32467,7 +33050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -32480,4764 +33063,4782 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I156"/>
+  <dimension ref="A1:IV156"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.30469" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8594" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.47656" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.0156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.2656" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1094" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.21094" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21094" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21094" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.05469" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="224.55" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" ht="224.5" customHeight="1">
+      <c r="A3" s="3">
         <v>154</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" ht="140.35" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A4" s="3">
         <v>153</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s" s="4">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="128.35" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A5" s="3">
         <v>152</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="380.35" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9" ht="380.25" customHeight="1">
+      <c r="A6" s="3">
         <v>149</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s" s="4">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s" s="4">
+      <c r="H6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="584.35" customHeight="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A7" s="3">
         <v>126</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s" s="4">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="236.35" customHeight="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" ht="236.25" customHeight="1">
+      <c r="A8" s="3">
         <v>151</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="404.35" customHeight="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" ht="404.25" customHeight="1">
+      <c r="A9" s="3">
         <v>146</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="272.35" customHeight="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" ht="272.25" customHeight="1">
+      <c r="A10" s="3">
         <v>127</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s" s="8">
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="188.35" customHeight="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A11" s="3">
         <v>125</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="68.35" customHeight="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A12" s="3">
         <v>104</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="13" ht="104.35" customHeight="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" ht="104.25" customHeight="1">
+      <c r="A13" s="3">
         <v>103</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" ht="80.35" customHeight="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:9" ht="80.25" customHeight="1">
+      <c r="A14" s="3">
         <v>98</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>5</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="15" ht="68.35" customHeight="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A15" s="3">
         <v>88</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
-    <row r="16" ht="140.35" customHeight="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A16" s="3">
         <v>73</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
-    <row r="17" ht="104.35" customHeight="1">
-      <c r="A17" s="4">
+    <row r="17" spans="1:9" ht="104.25" customHeight="1">
+      <c r="A17" s="3">
         <v>70</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
-    <row r="18" ht="368.35" customHeight="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:9" ht="368.25" customHeight="1">
+      <c r="A18" s="3">
         <v>65</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
-    <row r="19" ht="140.35" customHeight="1">
-      <c r="A19" s="4">
+    <row r="19" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A19" s="3">
         <v>57</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>5</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
-    <row r="20" ht="176.35" customHeight="1">
-      <c r="A20" s="4">
+    <row r="20" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A20" s="3">
         <v>56</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
-    <row r="21" ht="176.35" customHeight="1">
-      <c r="A21" s="4">
+    <row r="21" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A21" s="3">
         <v>50</v>
       </c>
-      <c r="B21" t="s" s="5">
+      <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
-    <row r="22" ht="140.35" customHeight="1">
-      <c r="A22" s="4">
+    <row r="22" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A22" s="3">
         <v>38</v>
       </c>
-      <c r="B22" t="s" s="5">
+      <c r="B22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E22" t="s" s="5">
+      <c r="E22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
-    <row r="23" ht="176.35" customHeight="1">
-      <c r="A23" s="4">
+    <row r="23" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A23" s="3">
         <v>28</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s" s="5">
+      <c r="E23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>5</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
-    <row r="24" ht="92.35" customHeight="1">
-      <c r="A24" s="4">
+    <row r="24" spans="1:9" ht="92.25" customHeight="1">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
-    <row r="25" ht="80.35" customHeight="1">
-      <c r="A25" s="4">
+    <row r="25" spans="1:9" ht="80.25" customHeight="1">
+      <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s" s="5">
+      <c r="D25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E25" t="s" s="5">
+      <c r="E25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>5</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
-    <row r="26" ht="272.35" customHeight="1">
-      <c r="A26" s="4">
+    <row r="26" spans="1:9" ht="272.25" customHeight="1">
+      <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" t="s" s="5">
+      <c r="D26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s" s="5">
+      <c r="E26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F26" t="s" s="5">
+      <c r="F26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>5</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
-    <row r="27" ht="296.35" customHeight="1">
-      <c r="A27" s="4">
+    <row r="27" spans="1:9" ht="296.25" customHeight="1">
+      <c r="A27" s="3">
         <v>8</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
-    <row r="28" ht="128.35" customHeight="1">
-      <c r="A28" s="4">
+    <row r="28" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" t="s" s="5">
+      <c r="D28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s" s="5">
+      <c r="E28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F28" t="s" s="5">
+      <c r="F28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
-    <row r="29" ht="152.35" customHeight="1">
-      <c r="A29" s="4">
+    <row r="29" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A29" s="3">
         <v>131</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s" s="5">
+      <c r="D29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E29" t="s" s="5">
+      <c r="E29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F29" t="s" s="5">
+      <c r="F29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>4</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
-    <row r="30" ht="92.35" customHeight="1">
-      <c r="A30" s="4">
+    <row r="30" spans="1:9" ht="92.25" customHeight="1">
+      <c r="A30" s="3">
         <v>129</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E30" t="s" s="5">
+      <c r="E30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>4</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
-    <row r="31" ht="260.35" customHeight="1">
-      <c r="A31" s="4">
+    <row r="31" spans="1:9" ht="260.25" customHeight="1">
+      <c r="A31" s="3">
         <v>123</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="5">
+      <c r="D31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E31" t="s" s="5">
+      <c r="E31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F31" t="s" s="5">
+      <c r="F31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>4</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
-    <row r="32" ht="68.35" customHeight="1">
-      <c r="A32" s="4">
+    <row r="32" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A32" s="3">
         <v>122</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D32" t="s" s="5">
+      <c r="D32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E32" t="s" s="5">
+      <c r="E32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>4</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
-    <row r="33" ht="140.35" customHeight="1">
-      <c r="A33" s="4">
+    <row r="33" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A33" s="3">
         <v>121</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>4</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
-    <row r="34" ht="116.35" customHeight="1">
-      <c r="A34" s="4">
+    <row r="34" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A34" s="3">
         <v>102</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D34" t="s" s="5">
+      <c r="D34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E34" t="s" s="5">
+      <c r="E34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>4</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
-    <row r="35" ht="152.35" customHeight="1">
-      <c r="A35" s="4">
+    <row r="35" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A35" s="3">
         <v>91</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D35" t="s" s="5">
+      <c r="D35" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E35" t="s" s="5">
+      <c r="E35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>4</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
-    <row r="36" ht="200.35" customHeight="1">
-      <c r="A36" s="4">
+    <row r="36" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A36" s="3">
         <v>79</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D36" t="s" s="5">
+      <c r="D36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E36" t="s" s="5">
+      <c r="E36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F36" t="s" s="5">
+      <c r="F36" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>4</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
-    <row r="37" ht="104.35" customHeight="1">
-      <c r="A37" s="4">
+    <row r="37" spans="1:9" ht="104.25" customHeight="1">
+      <c r="A37" s="3">
         <v>78</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D37" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E37" t="s" s="5">
+      <c r="E37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F37" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>4</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
-    <row r="38" ht="116.35" customHeight="1">
-      <c r="A38" s="4">
+    <row r="38" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A38" s="3">
         <v>77</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D38" t="s" s="5">
+      <c r="D38" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E38" t="s" s="5">
+      <c r="E38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F38" t="s" s="5">
+      <c r="F38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>4</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
-    <row r="39" ht="200.35" customHeight="1">
-      <c r="A39" s="4">
+    <row r="39" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A39" s="3">
         <v>69</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s" s="5">
+      <c r="D39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E39" t="s" s="5">
+      <c r="E39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F39" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>4</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
-    <row r="40" ht="128.35" customHeight="1">
-      <c r="A40" s="4">
+    <row r="40" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A40" s="3">
         <v>67</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s" s="5">
+      <c r="D40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E40" t="s" s="5">
+      <c r="E40" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F40" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>4</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
-    <row r="41" ht="152.35" customHeight="1">
-      <c r="A41" s="4">
+    <row r="41" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A41" s="3">
         <v>49</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C41" t="s" s="4">
+      <c r="C41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D41" t="s" s="5">
+      <c r="D41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E41" t="s" s="5">
+      <c r="E41" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F41" t="s" s="5">
+      <c r="F41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>4</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
-    <row r="42" ht="152.35" customHeight="1">
-      <c r="A42" s="4">
+    <row r="42" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A42" s="3">
         <v>46</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D42" t="s" s="5">
+      <c r="D42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E42" t="s" s="5">
+      <c r="E42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F42" t="s" s="5">
+      <c r="F42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>4</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
-    <row r="43" ht="128.35" customHeight="1">
-      <c r="A43" s="4">
+    <row r="43" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A43" s="3">
         <v>27</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s" s="5">
+      <c r="D43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E43" t="s" s="5">
+      <c r="E43" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F43" t="s" s="5">
+      <c r="F43" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>4</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
-    <row r="44" ht="68.35" customHeight="1">
-      <c r="A44" s="4">
+    <row r="44" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A44" s="3">
         <v>24</v>
       </c>
-      <c r="B44" t="s" s="5">
+      <c r="B44" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D44" t="s" s="5">
+      <c r="D44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E44" t="s" s="5">
+      <c r="E44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F44" t="s" s="5">
+      <c r="F44" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>4</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
-    <row r="45" ht="176.35" customHeight="1">
-      <c r="A45" s="4">
+    <row r="45" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A45" s="3">
         <v>23</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D45" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E45" t="s" s="5">
+      <c r="E45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>4</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
-    <row r="46" ht="128.35" customHeight="1">
-      <c r="A46" s="4">
+    <row r="46" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A46" s="3">
         <v>22</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D46" t="s" s="5">
+      <c r="D46" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E46" t="s" s="5">
+      <c r="E46" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F46" t="s" s="5">
+      <c r="F46" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>4</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
     </row>
-    <row r="47" ht="68.35" customHeight="1">
-      <c r="A47" s="4">
+    <row r="47" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A47" s="3">
         <v>13</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D47" t="s" s="5">
+      <c r="D47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E47" t="s" s="5">
+      <c r="E47" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F47" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>4</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
-    <row r="48" ht="92.35" customHeight="1">
-      <c r="A48" s="4">
+    <row r="48" spans="1:9" ht="92.25" customHeight="1">
+      <c r="A48" s="3">
         <v>12</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D48" t="s" s="5">
+      <c r="D48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E48" t="s" s="5">
+      <c r="E48" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>4</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
-    <row r="49" ht="200.35" customHeight="1">
-      <c r="A49" s="4">
+    <row r="49" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A49" s="3">
         <v>2</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D49" t="s" s="5">
+      <c r="D49" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E49" t="s" s="5">
+      <c r="E49" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F49" t="s" s="5">
+      <c r="F49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>4</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
-    <row r="50" ht="296.35" customHeight="1">
-      <c r="A50" s="4">
+    <row r="50" spans="1:9" ht="296.25" customHeight="1">
+      <c r="A50" s="3">
         <v>133</v>
       </c>
-      <c r="B50" t="s" s="5">
+      <c r="B50" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D50" t="s" s="5">
+      <c r="D50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E50" t="s" s="5">
+      <c r="E50" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F50" t="s" s="5">
+      <c r="F50" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>3</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
     </row>
-    <row r="51" ht="164.35" customHeight="1">
-      <c r="A51" s="4">
+    <row r="51" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A51" s="3">
         <v>132</v>
       </c>
-      <c r="B51" t="s" s="5">
+      <c r="B51" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="5">
+      <c r="D51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E51" t="s" s="5">
+      <c r="E51" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F51" t="s" s="5">
+      <c r="F51" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>3</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
     </row>
-    <row r="52" ht="440.35" customHeight="1">
-      <c r="A52" s="4">
+    <row r="52" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A52" s="3">
         <v>130</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D52" t="s" s="5">
+      <c r="D52" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E52" t="s" s="5">
+      <c r="E52" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F52" t="s" s="5">
+      <c r="F52" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>3</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
     </row>
-    <row r="53" ht="176.35" customHeight="1">
-      <c r="A53" s="4">
+    <row r="53" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A53" s="3">
         <v>128</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s" s="4">
+      <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="5">
+      <c r="D53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E53" t="s" s="5">
+      <c r="E53" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F53" t="s" s="5">
+      <c r="F53" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
     </row>
-    <row r="54" ht="188.35" customHeight="1">
-      <c r="A54" s="4">
+    <row r="54" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A54" s="3">
         <v>116</v>
       </c>
-      <c r="B54" t="s" s="7">
+      <c r="B54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D54" t="s" s="5">
+      <c r="D54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="s" s="5">
+      <c r="E54" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F54" t="s" s="8">
+      <c r="F54" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
     </row>
-    <row r="55" ht="188.35" customHeight="1">
-      <c r="A55" s="4">
+    <row r="55" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A55" s="3">
         <v>114</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D55" t="s" s="5">
+      <c r="D55" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E55" t="s" s="5">
+      <c r="E55" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F55" t="s" s="5">
+      <c r="F55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
     </row>
-    <row r="56" ht="68.35" customHeight="1">
-      <c r="A56" s="4">
+    <row r="56" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A56" s="3">
         <v>112</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D56" t="s" s="5">
+      <c r="D56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E56" t="s" s="5">
+      <c r="E56" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F56" t="s" s="5">
+      <c r="F56" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>3</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
     </row>
-    <row r="57" ht="212.35" customHeight="1">
-      <c r="A57" s="4">
+    <row r="57" spans="1:9" ht="212.25" customHeight="1">
+      <c r="A57" s="3">
         <v>109</v>
       </c>
-      <c r="B57" t="s" s="5">
+      <c r="B57" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D57" t="s" s="5">
+      <c r="D57" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E57" t="s" s="5">
+      <c r="E57" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F57" t="s" s="5">
+      <c r="F57" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
     </row>
-    <row r="58" ht="152.35" customHeight="1">
-      <c r="A58" s="4">
+    <row r="58" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A58" s="3">
         <v>108</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D58" t="s" s="5">
+      <c r="D58" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E58" t="s" s="5">
+      <c r="E58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F58" t="s" s="5">
+      <c r="F58" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>3</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
     </row>
-    <row r="59" ht="44.35" customHeight="1">
-      <c r="A59" s="4">
+    <row r="59" spans="1:9" ht="44.25" customHeight="1">
+      <c r="A59" s="3">
         <v>106</v>
       </c>
-      <c r="B59" t="s" s="5">
+      <c r="B59" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="C59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s" s="5">
+      <c r="D59" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E59" t="s" s="5">
+      <c r="E59" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F59" t="s" s="5">
+      <c r="F59" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
-    <row r="60" ht="176.35" customHeight="1">
-      <c r="A60" s="4">
+    <row r="60" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A60" s="3">
         <v>105</v>
       </c>
-      <c r="B60" t="s" s="5">
+      <c r="B60" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D60" t="s" s="5">
+      <c r="D60" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E60" t="s" s="5">
+      <c r="E60" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F60" t="s" s="5">
+      <c r="F60" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
     </row>
-    <row r="61" ht="260.35" customHeight="1">
-      <c r="A61" s="4">
+    <row r="61" spans="1:9" ht="260.25" customHeight="1">
+      <c r="A61" s="3">
         <v>94</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D61" t="s" s="5">
+      <c r="D61" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E61" t="s" s="5">
+      <c r="E61" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F61" t="s" s="5">
+      <c r="F61" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>3</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
     </row>
-    <row r="62" ht="248.35" customHeight="1">
-      <c r="A62" s="4">
+    <row r="62" spans="1:9" ht="248.25" customHeight="1">
+      <c r="A62" s="3">
         <v>93</v>
       </c>
-      <c r="B62" t="s" s="5">
+      <c r="B62" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D62" t="s" s="5">
+      <c r="D62" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E62" t="s" s="5">
+      <c r="E62" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F62" t="s" s="5">
+      <c r="F62" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
     </row>
-    <row r="63" ht="236.35" customHeight="1">
-      <c r="A63" s="4">
+    <row r="63" spans="1:9" ht="236.25" customHeight="1">
+      <c r="A63" s="3">
         <v>86</v>
       </c>
-      <c r="B63" t="s" s="5">
+      <c r="B63" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D63" t="s" s="5">
+      <c r="D63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E63" t="s" s="5">
+      <c r="E63" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F63" t="s" s="5">
+      <c r="F63" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>3</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
     </row>
-    <row r="64" ht="80.35" customHeight="1">
-      <c r="A64" s="4">
+    <row r="64" spans="1:9" ht="80.25" customHeight="1">
+      <c r="A64" s="3">
         <v>83</v>
       </c>
-      <c r="B64" t="s" s="5">
+      <c r="B64" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D64" t="s" s="5">
+      <c r="D64" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E64" t="s" s="5">
+      <c r="E64" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F64" t="s" s="5">
+      <c r="F64" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>3</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
     </row>
-    <row r="65" ht="128.35" customHeight="1">
-      <c r="A65" s="4">
+    <row r="65" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A65" s="3">
         <v>82</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B65" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D65" t="s" s="5">
+      <c r="D65" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E65" t="s" s="5">
+      <c r="E65" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F65" t="s" s="5">
+      <c r="F65" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
     </row>
-    <row r="66" ht="200.35" customHeight="1">
-      <c r="A66" s="4">
+    <row r="66" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A66" s="3">
         <v>81</v>
       </c>
-      <c r="B66" t="s" s="5">
+      <c r="B66" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D66" t="s" s="5">
+      <c r="D66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E66" t="s" s="5">
+      <c r="E66" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F66" t="s" s="5">
+      <c r="F66" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>3</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
     </row>
-    <row r="67" ht="284.35" customHeight="1">
-      <c r="A67" s="4">
+    <row r="67" spans="1:9" ht="284.25" customHeight="1">
+      <c r="A67" s="3">
         <v>74</v>
       </c>
-      <c r="B67" t="s" s="5">
+      <c r="B67" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D67" t="s" s="5">
+      <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E67" t="s" s="5">
+      <c r="E67" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F67" t="s" s="5">
+      <c r="F67" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>3</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
     </row>
-    <row r="68" ht="104.35" customHeight="1">
-      <c r="A68" s="4">
+    <row r="68" spans="1:9" ht="104.25" customHeight="1">
+      <c r="A68" s="3">
         <v>72</v>
       </c>
-      <c r="B68" t="s" s="5">
+      <c r="B68" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="5">
+      <c r="D68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E68" t="s" s="5">
+      <c r="E68" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F68" t="s" s="5">
+      <c r="F68" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>3</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
     </row>
-    <row r="69" ht="164.35" customHeight="1">
-      <c r="A69" s="4">
+    <row r="69" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A69" s="3">
         <v>64</v>
       </c>
-      <c r="B69" t="s" s="5">
+      <c r="B69" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D69" t="s" s="5">
+      <c r="D69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E69" t="s" s="5">
+      <c r="E69" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F69" t="s" s="5">
+      <c r="F69" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>3</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
     </row>
-    <row r="70" ht="128.35" customHeight="1">
-      <c r="A70" s="4">
+    <row r="70" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A70" s="3">
         <v>63</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B70" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D70" t="s" s="5">
+      <c r="D70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E70" t="s" s="5">
+      <c r="E70" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F70" t="s" s="5">
+      <c r="F70" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>3</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
     </row>
-    <row r="71" ht="140.35" customHeight="1">
-      <c r="A71" s="4">
+    <row r="71" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A71" s="3">
         <v>62</v>
       </c>
-      <c r="B71" t="s" s="5">
+      <c r="B71" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D71" t="s" s="5">
+      <c r="D71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E71" t="s" s="5">
+      <c r="E71" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F71" t="s" s="5">
+      <c r="F71" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <v>3</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
     </row>
-    <row r="72" ht="92.35" customHeight="1">
-      <c r="A72" s="4">
+    <row r="72" spans="1:9" ht="92.25" customHeight="1">
+      <c r="A72" s="3">
         <v>53</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D72" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E72" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F72" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <v>3</v>
       </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
     </row>
-    <row r="73" ht="140.35" customHeight="1">
-      <c r="A73" s="4">
+    <row r="73" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A73" s="3">
         <v>52</v>
       </c>
-      <c r="B73" t="s" s="5">
+      <c r="B73" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="5">
+      <c r="D73" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E73" t="s" s="5">
+      <c r="E73" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F73" t="s" s="5">
+      <c r="F73" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="3">
         <v>3</v>
       </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
     </row>
-    <row r="74" ht="536.35" customHeight="1">
-      <c r="A74" s="4">
+    <row r="74" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A74" s="3">
         <v>51</v>
       </c>
-      <c r="B74" t="s" s="5">
+      <c r="B74" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="5">
+      <c r="D74" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E74" t="s" s="5">
+      <c r="E74" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F74" t="s" s="5">
+      <c r="F74" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <v>3</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
     </row>
-    <row r="75" ht="308.35" customHeight="1">
-      <c r="A75" s="4">
+    <row r="75" spans="1:9" ht="308.25" customHeight="1">
+      <c r="A75" s="3">
         <v>44</v>
       </c>
-      <c r="B75" t="s" s="5">
+      <c r="B75" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="5">
+      <c r="D75" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E75" t="s" s="5">
+      <c r="E75" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F75" t="s" s="5">
+      <c r="F75" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <v>3</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
     </row>
-    <row r="76" ht="236.35" customHeight="1">
-      <c r="A76" s="4">
+    <row r="76" spans="1:9" ht="236.25" customHeight="1">
+      <c r="A76" s="3">
         <v>43</v>
       </c>
-      <c r="B76" t="s" s="5">
+      <c r="B76" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D76" t="s" s="5">
+      <c r="D76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E76" t="s" s="5">
+      <c r="E76" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F76" t="s" s="5">
+      <c r="F76" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="3">
         <v>3</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
     </row>
-    <row r="77" ht="152.35" customHeight="1">
-      <c r="A77" s="4">
+    <row r="77" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A77" s="3">
         <v>39</v>
       </c>
-      <c r="B77" t="s" s="5">
+      <c r="B77" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D77" t="s" s="5">
+      <c r="D77" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E77" t="s" s="5">
+      <c r="E77" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F77" t="s" s="5">
+      <c r="F77" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="3">
         <v>3</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
     </row>
-    <row r="78" ht="68.35" customHeight="1">
-      <c r="A78" s="4">
+    <row r="78" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A78" s="3">
         <v>34</v>
       </c>
-      <c r="B78" t="s" s="5">
+      <c r="B78" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" t="s" s="5">
+      <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="5">
+      <c r="E78" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F78" t="s" s="5">
+      <c r="F78" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <v>3</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
     </row>
-    <row r="79" ht="80.35" customHeight="1">
-      <c r="A79" s="4">
+    <row r="79" spans="1:9" ht="80.25" customHeight="1">
+      <c r="A79" s="3">
         <v>33</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B79" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="5">
+      <c r="D79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E79" t="s" s="5">
+      <c r="E79" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F79" t="s" s="5">
+      <c r="F79" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="3">
         <v>3</v>
       </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
     </row>
-    <row r="80" ht="140.35" customHeight="1">
-      <c r="A80" s="4">
+    <row r="80" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A80" s="3">
         <v>29</v>
       </c>
-      <c r="B80" t="s" s="5">
+      <c r="B80" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D80" t="s" s="5">
+      <c r="D80" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E80" t="s" s="5">
+      <c r="E80" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F80" t="s" s="5">
+      <c r="F80" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="3">
         <v>3</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
-    <row r="81" ht="56.35" customHeight="1">
-      <c r="A81" s="4">
+    <row r="81" spans="1:9" ht="56.25" customHeight="1">
+      <c r="A81" s="3">
         <v>26</v>
       </c>
-      <c r="B81" t="s" s="5">
+      <c r="B81" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D81" t="s" s="5">
+      <c r="D81" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E81" t="s" s="5">
+      <c r="E81" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F81" t="s" s="5">
+      <c r="F81" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <v>3</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
     </row>
-    <row r="82" ht="392.35" customHeight="1">
-      <c r="A82" s="4">
+    <row r="82" spans="1:9" ht="392.25" customHeight="1">
+      <c r="A82" s="3">
         <v>25</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="5">
+      <c r="D82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E82" t="s" s="5">
+      <c r="E82" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F82" t="s" s="5">
+      <c r="F82" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="3">
         <v>3</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
     </row>
-    <row r="83" ht="188.35" customHeight="1">
-      <c r="A83" s="4">
+    <row r="83" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A83" s="3">
         <v>19</v>
       </c>
-      <c r="B83" t="s" s="5">
+      <c r="B83" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D83" t="s" s="5">
+      <c r="D83" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E83" t="s" s="5">
+      <c r="E83" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F83" t="s" s="5">
+      <c r="F83" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="3">
         <v>3</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
     </row>
-    <row r="84" ht="164.35" customHeight="1">
-      <c r="A84" s="4">
+    <row r="84" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A84" s="3">
         <v>17</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B84" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D84" t="s" s="5">
+      <c r="D84" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E84" t="s" s="5">
+      <c r="E84" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F84" t="s" s="5">
+      <c r="F84" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <v>3</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
     </row>
-    <row r="85" ht="428.35" customHeight="1">
-      <c r="A85" s="4">
+    <row r="85" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A85" s="3">
         <v>10</v>
       </c>
-      <c r="B85" t="s" s="5">
+      <c r="B85" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="5">
+      <c r="D85" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E85" t="s" s="5">
+      <c r="E85" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F85" t="s" s="5">
+      <c r="F85" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="3">
         <v>3</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
     </row>
-    <row r="86" ht="128.35" customHeight="1">
-      <c r="A86" s="4">
+    <row r="86" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A86" s="3">
         <v>7</v>
       </c>
-      <c r="B86" t="s" s="5">
+      <c r="B86" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D86" t="s" s="5">
+      <c r="D86" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E86" t="s" s="5">
+      <c r="E86" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F86" t="s" s="5">
+      <c r="F86" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="3">
         <v>3</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
     </row>
-    <row r="87" ht="284.35" customHeight="1">
-      <c r="A87" s="4">
+    <row r="87" spans="1:9" ht="284.25" customHeight="1">
+      <c r="A87" s="3">
         <v>4</v>
       </c>
-      <c r="B87" t="s" s="7">
+      <c r="B87" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C87" t="s" s="4">
+      <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="5">
+      <c r="D87" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E87" t="s" s="5">
+      <c r="E87" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F87" t="s" s="5">
+      <c r="F87" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="3">
         <v>3</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
     </row>
-    <row r="88" ht="188.35" customHeight="1">
-      <c r="A88" s="4">
+    <row r="88" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A88" s="3">
         <v>134</v>
       </c>
-      <c r="B88" t="s" s="5">
+      <c r="B88" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D88" t="s" s="5">
+      <c r="D88" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E88" t="s" s="5">
+      <c r="E88" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F88" t="s" s="5">
+      <c r="F88" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="3">
         <v>2</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I88" s="6"/>
+      <c r="I88" s="5"/>
     </row>
-    <row r="89" ht="188.35" customHeight="1">
-      <c r="A89" s="4">
+    <row r="89" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A89" s="3">
         <v>124</v>
       </c>
-      <c r="B89" t="s" s="7">
+      <c r="B89" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="5">
+      <c r="D89" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E89" t="s" s="5">
+      <c r="E89" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F89" t="s" s="5">
+      <c r="F89" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="3">
         <v>2</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
     </row>
-    <row r="90" ht="296.35" customHeight="1">
-      <c r="A90" s="4">
+    <row r="90" spans="1:9" ht="296.25" customHeight="1">
+      <c r="A90" s="3">
         <v>117</v>
       </c>
-      <c r="B90" t="s" s="7">
+      <c r="B90" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="5">
+      <c r="D90" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E90" t="s" s="5">
+      <c r="E90" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F90" t="s" s="5">
+      <c r="F90" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="3">
         <v>2</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
     </row>
-    <row r="91" ht="224.35" customHeight="1">
-      <c r="A91" s="4">
+    <row r="91" spans="1:9" ht="224.25" customHeight="1">
+      <c r="A91" s="3">
         <v>115</v>
       </c>
-      <c r="B91" t="s" s="5">
+      <c r="B91" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="5">
+      <c r="D91" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E91" t="s" s="5">
+      <c r="E91" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F91" t="s" s="5">
+      <c r="F91" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <v>2</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
     </row>
-    <row r="92" ht="236.35" customHeight="1">
-      <c r="A92" s="4">
+    <row r="92" spans="1:9" ht="236.25" customHeight="1">
+      <c r="A92" s="3">
         <v>113</v>
       </c>
-      <c r="B92" t="s" s="5">
+      <c r="B92" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D92" t="s" s="5">
+      <c r="D92" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E92" t="s" s="5">
+      <c r="E92" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F92" t="s" s="5">
+      <c r="F92" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="3">
         <v>2</v>
       </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
     </row>
-    <row r="93" ht="140.35" customHeight="1">
-      <c r="A93" s="4">
+    <row r="93" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A93" s="3">
         <v>110</v>
       </c>
-      <c r="B93" t="s" s="5">
+      <c r="B93" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C93" t="s" s="4">
+      <c r="C93" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D93" t="s" s="5">
+      <c r="D93" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E93" t="s" s="5">
+      <c r="E93" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="F93" t="s" s="5">
+      <c r="F93" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="3">
         <v>2</v>
       </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
     </row>
-    <row r="94" ht="188.35" customHeight="1">
-      <c r="A94" s="4">
+    <row r="94" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A94" s="3">
         <v>101</v>
       </c>
-      <c r="B94" t="s" s="5">
+      <c r="B94" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C94" t="s" s="4">
+      <c r="C94" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D94" t="s" s="5">
+      <c r="D94" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E94" t="s" s="5">
+      <c r="E94" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F94" t="s" s="5">
+      <c r="F94" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="3">
         <v>2</v>
       </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
     </row>
-    <row r="95" ht="416.35" customHeight="1">
-      <c r="A95" s="4">
+    <row r="95" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A95" s="3">
         <v>99</v>
       </c>
-      <c r="B95" t="s" s="7">
+      <c r="B95" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="5">
+      <c r="D95" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E95" t="s" s="5">
+      <c r="E95" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F95" t="s" s="5">
+      <c r="F95" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="3">
         <v>2</v>
       </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
     </row>
-    <row r="96" ht="260.35" customHeight="1">
-      <c r="A96" s="4">
+    <row r="96" spans="1:9" ht="260.25" customHeight="1">
+      <c r="A96" s="3">
         <v>97</v>
       </c>
-      <c r="B96" t="s" s="7">
+      <c r="B96" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="5">
+      <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E96" t="s" s="5">
+      <c r="E96" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F96" t="s" s="5">
+      <c r="F96" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="3">
         <v>2</v>
       </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
     </row>
-    <row r="97" ht="188.35" customHeight="1">
-      <c r="A97" s="4">
+    <row r="97" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A97" s="3">
         <v>92</v>
       </c>
-      <c r="B97" t="s" s="5">
+      <c r="B97" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D97" t="s" s="5">
+      <c r="D97" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E97" t="s" s="5">
+      <c r="E97" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F97" t="s" s="5">
+      <c r="F97" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="3">
         <v>2</v>
       </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
     </row>
-    <row r="98" ht="212.35" customHeight="1">
-      <c r="A98" s="4">
+    <row r="98" spans="1:9" ht="212.25" customHeight="1">
+      <c r="A98" s="3">
         <v>90</v>
       </c>
-      <c r="B98" t="s" s="5">
+      <c r="B98" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D98" t="s" s="5">
+      <c r="D98" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E98" t="s" s="5">
+      <c r="E98" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F98" t="s" s="5">
+      <c r="F98" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="3">
         <v>2</v>
       </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
     </row>
-    <row r="99" ht="128.35" customHeight="1">
-      <c r="A99" s="4">
+    <row r="99" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A99" s="3">
         <v>89</v>
       </c>
-      <c r="B99" t="s" s="5">
+      <c r="B99" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D99" t="s" s="5">
+      <c r="D99" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E99" t="s" s="5">
+      <c r="E99" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F99" t="s" s="5">
+      <c r="F99" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="3">
         <v>2</v>
       </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
     </row>
-    <row r="100" ht="140.35" customHeight="1">
-      <c r="A100" s="4">
+    <row r="100" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A100" s="3">
         <v>87</v>
       </c>
-      <c r="B100" t="s" s="7">
+      <c r="B100" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="5">
+      <c r="D100" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E100" t="s" s="5">
+      <c r="E100" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="4">
+      <c r="F100" s="4"/>
+      <c r="G100" s="3">
         <v>2</v>
       </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
     </row>
-    <row r="101" ht="164.35" customHeight="1">
-      <c r="A101" s="4">
+    <row r="101" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A101" s="3">
         <v>84</v>
       </c>
-      <c r="B101" t="s" s="7">
+      <c r="B101" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C101" t="s" s="4">
+      <c r="C101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="5">
+      <c r="D101" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E101" t="s" s="5">
+      <c r="E101" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F101" t="s" s="5">
+      <c r="F101" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="3">
         <v>2</v>
       </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
     </row>
-    <row r="102" ht="128.35" customHeight="1">
-      <c r="A102" s="4">
+    <row r="102" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A102" s="3">
         <v>80</v>
       </c>
-      <c r="B102" t="s" s="5">
+      <c r="B102" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D102" t="s" s="5">
+      <c r="D102" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E102" t="s" s="5">
+      <c r="E102" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F102" t="s" s="5">
+      <c r="F102" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="3">
         <v>2</v>
       </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
     </row>
-    <row r="103" ht="392.35" customHeight="1">
-      <c r="A103" s="4">
+    <row r="103" spans="1:9" ht="392.25" customHeight="1">
+      <c r="A103" s="3">
         <v>76</v>
       </c>
-      <c r="B103" t="s" s="5">
+      <c r="B103" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="5">
+      <c r="D103" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E103" t="s" s="5">
+      <c r="E103" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F103" t="s" s="5">
+      <c r="F103" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="3">
         <v>2</v>
       </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
     </row>
-    <row r="104" ht="188.35" customHeight="1">
-      <c r="A104" s="4">
+    <row r="104" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A104" s="3">
         <v>75</v>
       </c>
-      <c r="B104" t="s" s="7">
+      <c r="B104" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D104" t="s" s="5">
+      <c r="D104" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E104" t="s" s="5">
+      <c r="E104" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F104" t="s" s="5">
+      <c r="F104" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="3">
         <v>2</v>
       </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
     </row>
-    <row r="105" ht="416.35" customHeight="1">
-      <c r="A105" s="4">
+    <row r="105" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A105" s="3">
         <v>68</v>
       </c>
-      <c r="B105" t="s" s="7">
+      <c r="B105" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="5">
+      <c r="D105" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E105" t="s" s="5">
+      <c r="E105" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F105" t="s" s="5">
+      <c r="F105" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="3">
         <v>2</v>
       </c>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
     </row>
-    <row r="106" ht="140.35" customHeight="1">
-      <c r="A106" s="4">
+    <row r="106" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A106" s="3">
         <v>66</v>
       </c>
-      <c r="B106" t="s" s="5">
+      <c r="B106" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C106" t="s" s="4">
+      <c r="C106" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D106" t="s" s="5">
+      <c r="D106" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E106" t="s" s="5">
+      <c r="E106" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F106" t="s" s="5">
+      <c r="F106" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="3">
         <v>2</v>
       </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
     </row>
-    <row r="107" ht="164.35" customHeight="1">
-      <c r="A107" s="4">
+    <row r="107" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A107" s="3">
         <v>61</v>
       </c>
-      <c r="B107" t="s" s="5">
+      <c r="B107" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D107" t="s" s="5">
+      <c r="D107" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E107" t="s" s="5">
+      <c r="E107" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F107" t="s" s="5">
+      <c r="F107" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="3">
         <v>2</v>
       </c>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
     </row>
-    <row r="108" ht="116.35" customHeight="1">
-      <c r="A108" s="4">
+    <row r="108" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A108" s="3">
         <v>59</v>
       </c>
-      <c r="B108" t="s" s="5">
+      <c r="B108" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" t="s" s="5">
+      <c r="D108" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E108" t="s" s="5">
+      <c r="E108" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F108" t="s" s="5">
+      <c r="F108" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="3">
         <v>2</v>
       </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
     </row>
-    <row r="109" ht="128.35" customHeight="1">
-      <c r="A109" s="4">
+    <row r="109" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A109" s="3">
         <v>55</v>
       </c>
-      <c r="B109" t="s" s="5">
+      <c r="B109" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D109" t="s" s="5">
+      <c r="D109" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E109" t="s" s="5">
+      <c r="E109" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F109" t="s" s="5">
+      <c r="F109" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="3">
         <v>2</v>
       </c>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
     </row>
-    <row r="110" ht="152.35" customHeight="1">
-      <c r="A110" s="4">
+    <row r="110" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A110" s="3">
         <v>54</v>
       </c>
-      <c r="B110" t="s" s="5">
+      <c r="B110" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D110" t="s" s="5">
+      <c r="D110" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E110" t="s" s="5">
+      <c r="E110" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F110" t="s" s="5">
+      <c r="F110" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="3">
         <v>2</v>
       </c>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
     </row>
-    <row r="111" ht="128.35" customHeight="1">
-      <c r="A111" s="4">
+    <row r="111" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A111" s="3">
         <v>48</v>
       </c>
-      <c r="B111" t="s" s="5">
+      <c r="B111" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D111" t="s" s="5">
+      <c r="D111" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E111" t="s" s="5">
+      <c r="E111" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F111" t="s" s="5">
+      <c r="F111" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="3">
         <v>2</v>
       </c>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
     </row>
-    <row r="112" ht="284.35" customHeight="1">
-      <c r="A112" s="4">
+    <row r="112" spans="1:9" ht="284.25" customHeight="1">
+      <c r="A112" s="3">
         <v>47</v>
       </c>
-      <c r="B112" t="s" s="5">
+      <c r="B112" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="5">
+      <c r="D112" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E112" t="s" s="5">
+      <c r="E112" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F112" t="s" s="5">
+      <c r="F112" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="3">
         <v>2</v>
       </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
     </row>
-    <row r="113" ht="176.35" customHeight="1">
-      <c r="A113" s="4">
+    <row r="113" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A113" s="3">
         <v>42</v>
       </c>
-      <c r="B113" t="s" s="5">
+      <c r="B113" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="5">
+      <c r="D113" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E113" t="s" s="5">
+      <c r="E113" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F113" t="s" s="5">
+      <c r="F113" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="3">
         <v>2</v>
       </c>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
     </row>
-    <row r="114" ht="116.35" customHeight="1">
-      <c r="A114" s="4">
+    <row r="114" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A114" s="3">
         <v>41</v>
       </c>
-      <c r="B114" t="s" s="5">
+      <c r="B114" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C114" t="s" s="4">
+      <c r="C114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="5">
+      <c r="D114" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E114" t="s" s="5">
+      <c r="E114" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F114" t="s" s="5">
+      <c r="F114" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="3">
         <v>2</v>
       </c>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
     </row>
-    <row r="115" ht="272.35" customHeight="1">
-      <c r="A115" s="4">
+    <row r="115" spans="1:9" ht="272.25" customHeight="1">
+      <c r="A115" s="3">
         <v>40</v>
       </c>
-      <c r="B115" t="s" s="5">
+      <c r="B115" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D115" t="s" s="5">
+      <c r="D115" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E115" t="s" s="5">
+      <c r="E115" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F115" t="s" s="5">
+      <c r="F115" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="3">
         <v>2</v>
       </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
     </row>
-    <row r="116" ht="668.35" customHeight="1">
-      <c r="A116" s="4">
+    <row r="116" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A116" s="3">
         <v>37</v>
       </c>
-      <c r="B116" t="s" s="5">
+      <c r="B116" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="5">
+      <c r="D116" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="E116" t="s" s="5">
+      <c r="E116" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F116" t="s" s="5">
+      <c r="F116" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="3">
         <v>2</v>
       </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
     </row>
-    <row r="117" ht="176.35" customHeight="1">
-      <c r="A117" s="4">
+    <row r="117" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A117" s="3">
         <v>36</v>
       </c>
-      <c r="B117" t="s" s="5">
+      <c r="B117" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D117" t="s" s="5">
+      <c r="D117" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E117" t="s" s="5">
+      <c r="E117" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F117" t="s" s="5">
+      <c r="F117" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="3">
         <v>2</v>
       </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
     </row>
-    <row r="118" ht="152.35" customHeight="1">
-      <c r="A118" s="4">
+    <row r="118" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A118" s="3">
         <v>35</v>
       </c>
-      <c r="B118" t="s" s="5">
+      <c r="B118" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D118" t="s" s="5">
+      <c r="D118" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E118" t="s" s="5">
+      <c r="E118" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F118" t="s" s="5">
+      <c r="F118" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="3">
         <v>2</v>
       </c>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
     </row>
-    <row r="119" ht="416.35" customHeight="1">
-      <c r="A119" s="4">
+    <row r="119" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A119" s="3">
         <v>18</v>
       </c>
-      <c r="B119" t="s" s="7">
+      <c r="B119" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D119" t="s" s="5">
+      <c r="D119" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E119" t="s" s="5">
+      <c r="E119" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F119" t="s" s="5">
+      <c r="F119" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="3">
         <v>2</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="I119" s="6"/>
+      <c r="I119" s="5"/>
     </row>
-    <row r="120" ht="128.35" customHeight="1">
-      <c r="A120" s="4">
+    <row r="120" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A120" s="3">
         <v>11</v>
       </c>
-      <c r="B120" t="s" s="5">
+      <c r="B120" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D120" t="s" s="5">
+      <c r="D120" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E120" t="s" s="5">
+      <c r="E120" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="F120" t="s" s="5">
+      <c r="F120" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="3">
         <v>2</v>
       </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
     </row>
-    <row r="121" ht="152.35" customHeight="1">
-      <c r="A121" s="4">
+    <row r="121" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A121" s="3">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="5">
+      <c r="B121" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D121" t="s" s="5">
+      <c r="D121" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E121" t="s" s="5">
+      <c r="E121" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F121" t="s" s="5">
+      <c r="F121" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="3">
         <v>2</v>
       </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
     </row>
-    <row r="122" ht="224.35" customHeight="1">
-      <c r="A122" s="4">
+    <row r="122" spans="1:9" ht="224.25" customHeight="1">
+      <c r="A122" s="3">
         <v>5</v>
       </c>
-      <c r="B122" t="s" s="7">
+      <c r="B122" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D122" t="s" s="5">
+      <c r="D122" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E122" t="s" s="5">
+      <c r="E122" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F122" t="s" s="5">
+      <c r="F122" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="3">
         <v>2</v>
       </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
     </row>
-    <row r="123" ht="128.35" customHeight="1">
-      <c r="A123" s="4">
+    <row r="123" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A123" s="3">
         <v>3</v>
       </c>
-      <c r="B123" t="s" s="5">
+      <c r="B123" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D123" t="s" s="5">
+      <c r="D123" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E123" t="s" s="5">
+      <c r="E123" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F123" t="s" s="5">
+      <c r="F123" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="3">
         <v>2</v>
       </c>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
     </row>
-    <row r="124" ht="140.35" customHeight="1">
-      <c r="A124" s="4">
+    <row r="124" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A124" s="3">
         <v>150</v>
       </c>
-      <c r="B124" t="s" s="5">
+      <c r="B124" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D124" t="s" s="5">
+      <c r="D124" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E124" t="s" s="5">
+      <c r="E124" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F124" t="s" s="5">
+      <c r="F124" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="3">
         <v>1</v>
       </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
     </row>
-    <row r="125" ht="620.35" customHeight="1">
-      <c r="A125" s="4">
+    <row r="125" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A125" s="3">
         <v>148</v>
       </c>
-      <c r="B125" t="s" s="5">
+      <c r="B125" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D125" t="s" s="5">
+      <c r="D125" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E125" t="s" s="5">
+      <c r="E125" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F125" t="s" s="5">
+      <c r="F125" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="3">
         <v>1</v>
       </c>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
     </row>
-    <row r="126" ht="188.35" customHeight="1">
-      <c r="A126" s="4">
+    <row r="126" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A126" s="3">
         <v>147</v>
       </c>
-      <c r="B126" t="s" s="5">
+      <c r="B126" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D126" t="s" s="5">
+      <c r="D126" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E126" t="s" s="5">
+      <c r="E126" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F126" t="s" s="5">
+      <c r="F126" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="3">
         <v>1</v>
       </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
     </row>
-    <row r="127" ht="296.35" customHeight="1">
-      <c r="A127" s="4">
+    <row r="127" spans="1:9" ht="296.25" customHeight="1">
+      <c r="A127" s="3">
         <v>145</v>
       </c>
-      <c r="B127" t="s" s="7">
+      <c r="B127" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="5">
+      <c r="D127" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E127" t="s" s="5">
+      <c r="E127" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="F127" t="s" s="5">
+      <c r="F127" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="3">
         <v>1</v>
       </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
     </row>
-    <row r="128" ht="164.35" customHeight="1">
-      <c r="A128" s="4">
+    <row r="128" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A128" s="3">
         <v>144</v>
       </c>
-      <c r="B128" t="s" s="5">
+      <c r="B128" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D128" t="s" s="5">
+      <c r="D128" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E128" t="s" s="5">
+      <c r="E128" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F128" t="s" s="5">
+      <c r="F128" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="3">
         <v>1</v>
       </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
     </row>
-    <row r="129" ht="368.35" customHeight="1">
-      <c r="A129" s="4">
+    <row r="129" spans="1:9" ht="368.25" customHeight="1">
+      <c r="A129" s="3">
         <v>143</v>
       </c>
-      <c r="B129" t="s" s="5">
+      <c r="B129" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D129" t="s" s="5">
+      <c r="D129" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E129" t="s" s="5">
+      <c r="E129" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F129" t="s" s="5">
+      <c r="F129" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="3">
         <v>1</v>
       </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
     </row>
-    <row r="130" ht="248.35" customHeight="1">
-      <c r="A130" s="4">
+    <row r="130" spans="1:9" ht="248.25" customHeight="1">
+      <c r="A130" s="3">
         <v>142</v>
       </c>
-      <c r="B130" t="s" s="5">
+      <c r="B130" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D130" t="s" s="5">
+      <c r="D130" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E130" t="s" s="5">
+      <c r="E130" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F130" t="s" s="5">
+      <c r="F130" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="3">
         <v>1</v>
       </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
     </row>
-    <row r="131" ht="128.35" customHeight="1">
-      <c r="A131" s="4">
+    <row r="131" spans="1:9" ht="128.25" customHeight="1">
+      <c r="A131" s="3">
         <v>141</v>
       </c>
-      <c r="B131" t="s" s="5">
+      <c r="B131" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D131" t="s" s="5">
+      <c r="D131" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E131" t="s" s="5">
+      <c r="E131" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F131" t="s" s="5">
+      <c r="F131" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="3">
         <v>1</v>
       </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
     </row>
-    <row r="132" ht="212.35" customHeight="1">
-      <c r="A132" s="4">
+    <row r="132" spans="1:9" ht="212.25" customHeight="1">
+      <c r="A132" s="3">
         <v>140</v>
       </c>
-      <c r="B132" t="s" s="7">
+      <c r="B132" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="5">
+      <c r="D132" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E132" t="s" s="5">
+      <c r="E132" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F132" t="s" s="5">
+      <c r="F132" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="3">
         <v>1</v>
       </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
     </row>
-    <row r="133" ht="212.35" customHeight="1">
-      <c r="A133" s="4">
+    <row r="133" spans="1:9" ht="212.25" customHeight="1">
+      <c r="A133" s="3">
         <v>139</v>
       </c>
-      <c r="B133" t="s" s="7">
+      <c r="B133" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C133" t="s" s="4">
+      <c r="C133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D133" t="s" s="5">
+      <c r="D133" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E133" t="s" s="5">
+      <c r="E133" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F133" t="s" s="5">
+      <c r="F133" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="3">
         <v>1</v>
       </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
     </row>
-    <row r="134" ht="188.35" customHeight="1">
-      <c r="A134" s="4">
+    <row r="134" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A134" s="3">
         <v>138</v>
       </c>
-      <c r="B134" t="s" s="7">
+      <c r="B134" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="5">
+      <c r="D134" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E134" t="s" s="5">
+      <c r="E134" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="F134" t="s" s="5">
+      <c r="F134" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="3">
         <v>1</v>
       </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
     </row>
-    <row r="135" ht="116.35" customHeight="1">
-      <c r="A135" s="4">
+    <row r="135" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A135" s="3">
         <v>137</v>
       </c>
-      <c r="B135" t="s" s="5">
+      <c r="B135" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D135" t="s" s="5">
+      <c r="D135" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E135" t="s" s="5">
+      <c r="E135" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="F135" t="s" s="5">
+      <c r="F135" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="3">
         <v>1</v>
       </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
     </row>
-    <row r="136" ht="68.35" customHeight="1">
-      <c r="A136" s="4">
+    <row r="136" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A136" s="3">
         <v>136</v>
       </c>
-      <c r="B136" t="s" s="5">
+      <c r="B136" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D136" t="s" s="5">
+      <c r="D136" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E136" t="s" s="5">
+      <c r="E136" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F136" t="s" s="5">
+      <c r="F136" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="3">
         <v>1</v>
       </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
     </row>
-    <row r="137" ht="176.35" customHeight="1">
-      <c r="A137" s="4">
+    <row r="137" spans="1:9" ht="176.25" customHeight="1">
+      <c r="A137" s="3">
         <v>135</v>
       </c>
-      <c r="B137" t="s" s="7">
+      <c r="B137" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="5">
+      <c r="D137" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E137" t="s" s="5">
+      <c r="E137" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="F137" t="s" s="5">
+      <c r="F137" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="3">
         <v>1</v>
       </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
     </row>
-    <row r="138" ht="164.35" customHeight="1">
-      <c r="A138" s="4">
+    <row r="138" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A138" s="3">
         <v>120</v>
       </c>
-      <c r="B138" t="s" s="5">
+      <c r="B138" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D138" t="s" s="5">
+      <c r="D138" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E138" t="s" s="5">
+      <c r="E138" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F138" t="s" s="5">
+      <c r="F138" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="3">
         <v>1</v>
       </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
     </row>
-    <row r="139" ht="116.35" customHeight="1">
-      <c r="A139" s="4">
+    <row r="139" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A139" s="3">
         <v>119</v>
       </c>
-      <c r="B139" t="s" s="5">
+      <c r="B139" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C139" t="s" s="4">
+      <c r="C139" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D139" t="s" s="5">
+      <c r="D139" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E139" t="s" s="5">
+      <c r="E139" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F139" t="s" s="5">
+      <c r="F139" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="3">
         <v>1</v>
       </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
     </row>
-    <row r="140" ht="68.35" customHeight="1">
-      <c r="A140" s="4">
+    <row r="140" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A140" s="3">
         <v>118</v>
       </c>
-      <c r="B140" t="s" s="5">
+      <c r="B140" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D140" t="s" s="5">
+      <c r="D140" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E140" t="s" s="5">
+      <c r="E140" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F140" t="s" s="5">
+      <c r="F140" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="3">
         <v>1</v>
       </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
     </row>
-    <row r="141" ht="68.35" customHeight="1">
-      <c r="A141" s="4">
+    <row r="141" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A141" s="3">
         <v>111</v>
       </c>
-      <c r="B141" t="s" s="5">
+      <c r="B141" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D141" t="s" s="5">
+      <c r="D141" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E141" t="s" s="5">
+      <c r="E141" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F141" t="s" s="8">
+      <c r="F141" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="3">
         <v>1</v>
       </c>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
     </row>
-    <row r="142" ht="34.35" customHeight="1">
-      <c r="A142" s="4">
+    <row r="142" spans="1:9" ht="34.25" customHeight="1">
+      <c r="A142" s="3">
         <v>107</v>
       </c>
-      <c r="B142" t="s" s="5">
+      <c r="B142" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D142" t="s" s="5">
+      <c r="D142" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E142" t="s" s="5">
+      <c r="E142" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F142" t="s" s="5">
+      <c r="F142" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="3">
         <v>1</v>
       </c>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
     </row>
-    <row r="143" ht="68.35" customHeight="1">
-      <c r="A143" s="4">
+    <row r="143" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A143" s="3">
         <v>100</v>
       </c>
-      <c r="B143" t="s" s="5">
+      <c r="B143" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D143" t="s" s="5">
+      <c r="D143" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E143" t="s" s="5">
+      <c r="E143" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="F143" t="s" s="5">
+      <c r="F143" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="3">
         <v>1</v>
       </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
     </row>
-    <row r="144" ht="152.35" customHeight="1">
-      <c r="A144" s="4">
+    <row r="144" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A144" s="3">
         <v>96</v>
       </c>
-      <c r="B144" t="s" s="5">
+      <c r="B144" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D144" t="s" s="5">
+      <c r="D144" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E144" t="s" s="5">
+      <c r="E144" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F144" t="s" s="5">
+      <c r="F144" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="3">
         <v>1</v>
       </c>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
     </row>
-    <row r="145" ht="332.35" customHeight="1">
-      <c r="A145" s="4">
+    <row r="145" spans="1:9" ht="332.25" customHeight="1">
+      <c r="A145" s="3">
         <v>95</v>
       </c>
-      <c r="B145" t="s" s="5">
+      <c r="B145" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C145" t="s" s="4">
+      <c r="C145" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D145" t="s" s="5">
+      <c r="D145" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E145" t="s" s="5">
+      <c r="E145" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F145" t="s" s="8">
+      <c r="F145" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="3">
         <v>1</v>
       </c>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
     </row>
-    <row r="146" ht="260.35" customHeight="1">
-      <c r="A146" s="4">
+    <row r="146" spans="1:9" ht="260.25" customHeight="1">
+      <c r="A146" s="3">
         <v>85</v>
       </c>
-      <c r="B146" t="s" s="5">
+      <c r="B146" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="5">
+      <c r="D146" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E146" t="s" s="5">
+      <c r="E146" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="F146" t="s" s="5">
+      <c r="F146" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="3">
         <v>1</v>
       </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
     </row>
-    <row r="147" ht="188.35" customHeight="1">
-      <c r="A147" s="4">
+    <row r="147" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A147" s="3">
         <v>71</v>
       </c>
-      <c r="B147" t="s" s="5">
+      <c r="B147" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D147" t="s" s="5">
+      <c r="D147" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E147" t="s" s="5">
+      <c r="E147" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="F147" t="s" s="5">
+      <c r="F147" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="3">
         <v>1</v>
       </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
     </row>
-    <row r="148" ht="200.35" customHeight="1">
-      <c r="A148" s="4">
+    <row r="148" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A148" s="3">
         <v>60</v>
       </c>
-      <c r="B148" t="s" s="7">
+      <c r="B148" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D148" t="s" s="5">
+      <c r="D148" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="E148" t="s" s="5">
+      <c r="E148" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F148" t="s" s="5">
+      <c r="F148" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="3">
         <v>1</v>
       </c>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
     </row>
-    <row r="149" ht="68.35" customHeight="1">
-      <c r="A149" s="4">
+    <row r="149" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A149" s="3">
         <v>58</v>
       </c>
-      <c r="B149" t="s" s="5">
+      <c r="B149" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D149" t="s" s="5">
+      <c r="D149" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E149" t="s" s="5">
+      <c r="E149" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F149" t="s" s="5">
+      <c r="F149" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="3">
         <v>1</v>
       </c>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
     </row>
-    <row r="150" ht="188.35" customHeight="1">
-      <c r="A150" s="4">
+    <row r="150" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A150" s="3">
         <v>45</v>
       </c>
-      <c r="B150" t="s" s="5">
+      <c r="B150" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="5">
+      <c r="D150" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E150" t="s" s="5">
+      <c r="E150" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="F150" t="s" s="5">
+      <c r="F150" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="3">
         <v>1</v>
       </c>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
     </row>
-    <row r="151" ht="296.35" customHeight="1">
-      <c r="A151" s="4">
+    <row r="151" spans="1:9" ht="296.25" customHeight="1">
+      <c r="A151" s="3">
         <v>32</v>
       </c>
-      <c r="B151" t="s" s="7">
+      <c r="B151" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="5">
+      <c r="D151" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E151" t="s" s="5">
+      <c r="E151" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="F151" t="s" s="5">
+      <c r="F151" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="3">
         <v>1</v>
       </c>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
     </row>
-    <row r="152" ht="164.35" customHeight="1">
-      <c r="A152" s="4">
+    <row r="152" spans="1:9" ht="164.25" customHeight="1">
+      <c r="A152" s="3">
         <v>31</v>
       </c>
-      <c r="B152" t="s" s="5">
+      <c r="B152" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D152" t="s" s="5">
+      <c r="D152" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E152" t="s" s="5">
+      <c r="E152" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F152" t="s" s="5">
+      <c r="F152" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="3">
         <v>1</v>
       </c>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
     </row>
-    <row r="153" ht="284.35" customHeight="1">
-      <c r="A153" s="4">
+    <row r="153" spans="1:9" ht="284.25" customHeight="1">
+      <c r="A153" s="3">
         <v>30</v>
       </c>
-      <c r="B153" t="s" s="5">
+      <c r="B153" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="5">
+      <c r="D153" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E153" t="s" s="5">
+      <c r="E153" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F153" t="s" s="5">
+      <c r="F153" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="3">
         <v>1</v>
       </c>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
     </row>
-    <row r="154" ht="272.35" customHeight="1">
-      <c r="A154" s="4">
+    <row r="154" spans="1:9" ht="272.25" customHeight="1">
+      <c r="A154" s="3">
         <v>16</v>
       </c>
-      <c r="B154" t="s" s="5">
+      <c r="B154" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D154" t="s" s="5">
+      <c r="D154" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E154" t="s" s="5">
+      <c r="E154" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="F154" t="s" s="5">
+      <c r="F154" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="3">
         <v>1</v>
       </c>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
     </row>
-    <row r="155" ht="248.35" customHeight="1">
-      <c r="A155" s="4">
+    <row r="155" spans="1:9" ht="248.25" customHeight="1">
+      <c r="A155" s="3">
         <v>14</v>
       </c>
-      <c r="B155" t="s" s="5">
+      <c r="B155" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D155" t="s" s="5">
+      <c r="D155" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E155" t="s" s="5">
+      <c r="E155" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F155" t="s" s="5">
+      <c r="F155" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="3">
         <v>1</v>
       </c>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
     </row>
-    <row r="156" ht="68.35" customHeight="1">
-      <c r="A156" s="4">
+    <row r="156" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A156" s="3">
         <v>6</v>
       </c>
-      <c r="B156" t="s" s="5">
+      <c r="B156" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D156" t="s" s="5">
+      <c r="D156" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E156" t="s" s="5">
+      <c r="E156" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F156" t="s" s="5">
+      <c r="F156" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="3">
         <v>1</v>
       </c>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="B14" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="B15" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="B16" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="B17" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="B18" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="B19" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="B20" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="B21" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="B22" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="B23" r:id="rId21" location="" tooltip="" display=""/>
-    <hyperlink ref="B24" r:id="rId22" location="" tooltip="" display=""/>
-    <hyperlink ref="B25" r:id="rId23" location="" tooltip="" display=""/>
-    <hyperlink ref="B26" r:id="rId24" location="" tooltip="" display=""/>
-    <hyperlink ref="B27" r:id="rId25" location="" tooltip="" display=""/>
-    <hyperlink ref="B28" r:id="rId26" location="" tooltip="" display=""/>
-    <hyperlink ref="B29" r:id="rId27" location="" tooltip="" display=""/>
-    <hyperlink ref="B30" r:id="rId28" location="" tooltip="" display=""/>
-    <hyperlink ref="B31" r:id="rId29" location="" tooltip="" display=""/>
-    <hyperlink ref="B32" r:id="rId30" location="" tooltip="" display=""/>
-    <hyperlink ref="B33" r:id="rId31" location="" tooltip="" display=""/>
-    <hyperlink ref="B34" r:id="rId32" location="" tooltip="" display=""/>
-    <hyperlink ref="B35" r:id="rId33" location="" tooltip="" display=""/>
-    <hyperlink ref="B36" r:id="rId34" location="" tooltip="" display=""/>
-    <hyperlink ref="B37" r:id="rId35" location="" tooltip="" display=""/>
-    <hyperlink ref="B38" r:id="rId36" location="" tooltip="" display=""/>
-    <hyperlink ref="B39" r:id="rId37" location="" tooltip="" display=""/>
-    <hyperlink ref="B40" r:id="rId38" location="" tooltip="" display=""/>
-    <hyperlink ref="B41" r:id="rId39" location="" tooltip="" display=""/>
-    <hyperlink ref="B42" r:id="rId40" location="" tooltip="" display=""/>
-    <hyperlink ref="B43" r:id="rId41" location="" tooltip="" display=""/>
-    <hyperlink ref="B44" r:id="rId42" location="" tooltip="" display=""/>
-    <hyperlink ref="B45" r:id="rId43" location="" tooltip="" display=""/>
-    <hyperlink ref="B46" r:id="rId44" location="" tooltip="" display=""/>
-    <hyperlink ref="B47" r:id="rId45" location="" tooltip="" display=""/>
-    <hyperlink ref="B48" r:id="rId46" location="" tooltip="" display=""/>
-    <hyperlink ref="B49" r:id="rId47" location="" tooltip="" display=""/>
-    <hyperlink ref="B50" r:id="rId48" location="" tooltip="" display=""/>
-    <hyperlink ref="B51" r:id="rId49" location="" tooltip="" display=""/>
-    <hyperlink ref="B52" r:id="rId50" location="" tooltip="" display=""/>
-    <hyperlink ref="B53" r:id="rId51" location="" tooltip="" display=""/>
-    <hyperlink ref="B54" r:id="rId52" location="" tooltip="" display=""/>
-    <hyperlink ref="B55" r:id="rId53" location="" tooltip="" display=""/>
-    <hyperlink ref="B56" r:id="rId54" location="" tooltip="" display=""/>
-    <hyperlink ref="B57" r:id="rId55" location="" tooltip="" display=""/>
-    <hyperlink ref="B58" r:id="rId56" location="" tooltip="" display=""/>
-    <hyperlink ref="B59" r:id="rId57" location="" tooltip="" display=""/>
-    <hyperlink ref="B60" r:id="rId58" location="" tooltip="" display=""/>
-    <hyperlink ref="B61" r:id="rId59" location="" tooltip="" display=""/>
-    <hyperlink ref="B62" r:id="rId60" location="" tooltip="" display=""/>
-    <hyperlink ref="B63" r:id="rId61" location="" tooltip="" display=""/>
-    <hyperlink ref="B64" r:id="rId62" location="" tooltip="" display=""/>
-    <hyperlink ref="B65" r:id="rId63" location="" tooltip="" display=""/>
-    <hyperlink ref="B66" r:id="rId64" location="" tooltip="" display=""/>
-    <hyperlink ref="B67" r:id="rId65" location="" tooltip="" display=""/>
-    <hyperlink ref="B68" r:id="rId66" location="" tooltip="" display=""/>
-    <hyperlink ref="B69" r:id="rId67" location="" tooltip="" display=""/>
-    <hyperlink ref="B70" r:id="rId68" location="" tooltip="" display=""/>
-    <hyperlink ref="B71" r:id="rId69" location="" tooltip="" display=""/>
-    <hyperlink ref="B72" r:id="rId70" location="" tooltip="" display=""/>
-    <hyperlink ref="B73" r:id="rId71" location="" tooltip="" display=""/>
-    <hyperlink ref="B74" r:id="rId72" location="" tooltip="" display=""/>
-    <hyperlink ref="B75" r:id="rId73" location="" tooltip="" display=""/>
-    <hyperlink ref="B76" r:id="rId74" location="" tooltip="" display=""/>
-    <hyperlink ref="B77" r:id="rId75" location="" tooltip="" display=""/>
-    <hyperlink ref="B78" r:id="rId76" location="" tooltip="" display=""/>
-    <hyperlink ref="B79" r:id="rId77" location="" tooltip="" display=""/>
-    <hyperlink ref="B80" r:id="rId78" location="" tooltip="" display=""/>
-    <hyperlink ref="B81" r:id="rId79" location="" tooltip="" display=""/>
-    <hyperlink ref="B82" r:id="rId80" location="" tooltip="" display=""/>
-    <hyperlink ref="B83" r:id="rId81" location="" tooltip="" display=""/>
-    <hyperlink ref="B84" r:id="rId82" location="" tooltip="" display=""/>
-    <hyperlink ref="B85" r:id="rId83" location="" tooltip="" display=""/>
-    <hyperlink ref="B86" r:id="rId84" location="" tooltip="" display=""/>
-    <hyperlink ref="B87" r:id="rId85" location="" tooltip="" display=""/>
-    <hyperlink ref="B88" r:id="rId86" location="" tooltip="" display=""/>
-    <hyperlink ref="B89" r:id="rId87" location="" tooltip="" display=""/>
-    <hyperlink ref="B90" r:id="rId88" location="" tooltip="" display=""/>
-    <hyperlink ref="B91" r:id="rId89" location="" tooltip="" display=""/>
-    <hyperlink ref="B92" r:id="rId90" location="" tooltip="" display=""/>
-    <hyperlink ref="B93" r:id="rId91" location="" tooltip="" display=""/>
-    <hyperlink ref="B94" r:id="rId92" location="" tooltip="" display=""/>
-    <hyperlink ref="B95" r:id="rId93" location="" tooltip="" display=""/>
-    <hyperlink ref="B96" r:id="rId94" location="" tooltip="" display=""/>
-    <hyperlink ref="B97" r:id="rId95" location="" tooltip="" display=""/>
-    <hyperlink ref="B98" r:id="rId96" location="" tooltip="" display=""/>
-    <hyperlink ref="B99" r:id="rId97" location="" tooltip="" display=""/>
-    <hyperlink ref="B100" r:id="rId98" location="" tooltip="" display=""/>
-    <hyperlink ref="B101" r:id="rId99" location="" tooltip="" display=""/>
-    <hyperlink ref="B102" r:id="rId100" location="" tooltip="" display=""/>
-    <hyperlink ref="B103" r:id="rId101" location="" tooltip="" display=""/>
-    <hyperlink ref="B104" r:id="rId102" location="" tooltip="" display=""/>
-    <hyperlink ref="B105" r:id="rId103" location="" tooltip="" display=""/>
-    <hyperlink ref="B106" r:id="rId104" location="" tooltip="" display=""/>
-    <hyperlink ref="B107" r:id="rId105" location="" tooltip="" display=""/>
-    <hyperlink ref="B108" r:id="rId106" location="" tooltip="" display=""/>
-    <hyperlink ref="B109" r:id="rId107" location="" tooltip="" display=""/>
-    <hyperlink ref="B110" r:id="rId108" location="" tooltip="" display=""/>
-    <hyperlink ref="B111" r:id="rId109" location="" tooltip="" display=""/>
-    <hyperlink ref="B112" r:id="rId110" location="" tooltip="" display=""/>
-    <hyperlink ref="B113" r:id="rId111" location="" tooltip="" display=""/>
-    <hyperlink ref="B114" r:id="rId112" location="" tooltip="" display=""/>
-    <hyperlink ref="B115" r:id="rId113" location="" tooltip="" display=""/>
-    <hyperlink ref="B116" r:id="rId114" location="" tooltip="" display=""/>
-    <hyperlink ref="B117" r:id="rId115" location="" tooltip="" display=""/>
-    <hyperlink ref="B118" r:id="rId116" location="" tooltip="" display=""/>
-    <hyperlink ref="B119" r:id="rId117" location="" tooltip="" display=""/>
-    <hyperlink ref="B120" r:id="rId118" location="" tooltip="" display=""/>
-    <hyperlink ref="B121" r:id="rId119" location="" tooltip="" display=""/>
-    <hyperlink ref="B122" r:id="rId120" location="" tooltip="" display=""/>
-    <hyperlink ref="B123" r:id="rId121" location="" tooltip="" display=""/>
-    <hyperlink ref="B124" r:id="rId122" location="" tooltip="" display=""/>
-    <hyperlink ref="B125" r:id="rId123" location="" tooltip="" display=""/>
-    <hyperlink ref="B126" r:id="rId124" location="" tooltip="" display=""/>
-    <hyperlink ref="B127" r:id="rId125" location="" tooltip="" display=""/>
-    <hyperlink ref="B128" r:id="rId126" location="" tooltip="" display=""/>
-    <hyperlink ref="B129" r:id="rId127" location="" tooltip="" display=""/>
-    <hyperlink ref="B130" r:id="rId128" location="" tooltip="" display=""/>
-    <hyperlink ref="B131" r:id="rId129" location="" tooltip="" display=""/>
-    <hyperlink ref="B132" r:id="rId130" location="" tooltip="" display=""/>
-    <hyperlink ref="B133" r:id="rId131" location="" tooltip="" display=""/>
-    <hyperlink ref="B134" r:id="rId132" location="" tooltip="" display=""/>
-    <hyperlink ref="B135" r:id="rId133" location="" tooltip="" display=""/>
-    <hyperlink ref="B136" r:id="rId134" location="" tooltip="" display=""/>
-    <hyperlink ref="B137" r:id="rId135" location="" tooltip="" display=""/>
-    <hyperlink ref="B138" r:id="rId136" location="" tooltip="" display=""/>
-    <hyperlink ref="B139" r:id="rId137" location="" tooltip="" display=""/>
-    <hyperlink ref="B140" r:id="rId138" location="" tooltip="" display=""/>
-    <hyperlink ref="B141" r:id="rId139" location="" tooltip="" display=""/>
-    <hyperlink ref="B142" r:id="rId140" location="" tooltip="" display=""/>
-    <hyperlink ref="B143" r:id="rId141" location="" tooltip="" display=""/>
-    <hyperlink ref="B144" r:id="rId142" location="" tooltip="" display=""/>
-    <hyperlink ref="B145" r:id="rId143" location="" tooltip="" display=""/>
-    <hyperlink ref="B146" r:id="rId144" location="" tooltip="" display=""/>
-    <hyperlink ref="B147" r:id="rId145" location="" tooltip="" display=""/>
-    <hyperlink ref="B148" r:id="rId146" location="" tooltip="" display=""/>
-    <hyperlink ref="B149" r:id="rId147" location="" tooltip="" display=""/>
-    <hyperlink ref="B150" r:id="rId148" location="" tooltip="" display=""/>
-    <hyperlink ref="B151" r:id="rId149" location="" tooltip="" display=""/>
-    <hyperlink ref="B152" r:id="rId150" location="" tooltip="" display=""/>
-    <hyperlink ref="B153" r:id="rId151" location="" tooltip="" display=""/>
-    <hyperlink ref="B154" r:id="rId152" location="" tooltip="" display=""/>
-    <hyperlink ref="B155" r:id="rId153" location="" tooltip="" display=""/>
-    <hyperlink ref="B156" r:id="rId154" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57"/>
+    <hyperlink ref="B60" r:id="rId58"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62"/>
+    <hyperlink ref="B65" r:id="rId63"/>
+    <hyperlink ref="B66" r:id="rId64"/>
+    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B68" r:id="rId66"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B74" r:id="rId72"/>
+    <hyperlink ref="B75" r:id="rId73"/>
+    <hyperlink ref="B76" r:id="rId74"/>
+    <hyperlink ref="B77" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77"/>
+    <hyperlink ref="B80" r:id="rId78"/>
+    <hyperlink ref="B81" r:id="rId79"/>
+    <hyperlink ref="B82" r:id="rId80"/>
+    <hyperlink ref="B83" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83"/>
+    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B87" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId87"/>
+    <hyperlink ref="B90" r:id="rId88"/>
+    <hyperlink ref="B91" r:id="rId89"/>
+    <hyperlink ref="B92" r:id="rId90"/>
+    <hyperlink ref="B93" r:id="rId91"/>
+    <hyperlink ref="B94" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
+    <hyperlink ref="B97" r:id="rId95"/>
+    <hyperlink ref="B98" r:id="rId96"/>
+    <hyperlink ref="B99" r:id="rId97"/>
+    <hyperlink ref="B100" r:id="rId98"/>
+    <hyperlink ref="B101" r:id="rId99"/>
+    <hyperlink ref="B102" r:id="rId100"/>
+    <hyperlink ref="B103" r:id="rId101"/>
+    <hyperlink ref="B104" r:id="rId102"/>
+    <hyperlink ref="B105" r:id="rId103"/>
+    <hyperlink ref="B106" r:id="rId104"/>
+    <hyperlink ref="B107" r:id="rId105"/>
+    <hyperlink ref="B108" r:id="rId106"/>
+    <hyperlink ref="B109" r:id="rId107"/>
+    <hyperlink ref="B110" r:id="rId108"/>
+    <hyperlink ref="B111" r:id="rId109"/>
+    <hyperlink ref="B112" r:id="rId110"/>
+    <hyperlink ref="B113" r:id="rId111"/>
+    <hyperlink ref="B114" r:id="rId112"/>
+    <hyperlink ref="B115" r:id="rId113"/>
+    <hyperlink ref="B116" r:id="rId114"/>
+    <hyperlink ref="B117" r:id="rId115"/>
+    <hyperlink ref="B118" r:id="rId116"/>
+    <hyperlink ref="B119" r:id="rId117"/>
+    <hyperlink ref="B120" r:id="rId118"/>
+    <hyperlink ref="B121" r:id="rId119"/>
+    <hyperlink ref="B122" r:id="rId120"/>
+    <hyperlink ref="B123" r:id="rId121"/>
+    <hyperlink ref="B124" r:id="rId122"/>
+    <hyperlink ref="B125" r:id="rId123"/>
+    <hyperlink ref="B126" r:id="rId124"/>
+    <hyperlink ref="B127" r:id="rId125"/>
+    <hyperlink ref="B128" r:id="rId126"/>
+    <hyperlink ref="B129" r:id="rId127"/>
+    <hyperlink ref="B130" r:id="rId128"/>
+    <hyperlink ref="B131" r:id="rId129"/>
+    <hyperlink ref="B132" r:id="rId130"/>
+    <hyperlink ref="B133" r:id="rId131"/>
+    <hyperlink ref="B134" r:id="rId132"/>
+    <hyperlink ref="B135" r:id="rId133"/>
+    <hyperlink ref="B136" r:id="rId134"/>
+    <hyperlink ref="B137" r:id="rId135"/>
+    <hyperlink ref="B138" r:id="rId136"/>
+    <hyperlink ref="B139" r:id="rId137"/>
+    <hyperlink ref="B140" r:id="rId138"/>
+    <hyperlink ref="B141" r:id="rId139"/>
+    <hyperlink ref="B142" r:id="rId140"/>
+    <hyperlink ref="B143" r:id="rId141"/>
+    <hyperlink ref="B144" r:id="rId142"/>
+    <hyperlink ref="B145" r:id="rId143"/>
+    <hyperlink ref="B146" r:id="rId144"/>
+    <hyperlink ref="B147" r:id="rId145"/>
+    <hyperlink ref="B148" r:id="rId146"/>
+    <hyperlink ref="B149" r:id="rId147"/>
+    <hyperlink ref="B150" r:id="rId148"/>
+    <hyperlink ref="B151" r:id="rId149"/>
+    <hyperlink ref="B152" r:id="rId150"/>
+    <hyperlink ref="B153" r:id="rId151"/>
+    <hyperlink ref="B154" r:id="rId152"/>
+    <hyperlink ref="B155" r:id="rId153"/>
+    <hyperlink ref="B156" r:id="rId154"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:C32"/>
+  <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5547" style="9" customWidth="1"/>
-    <col min="3" max="3" width="63.5938" style="9" customWidth="1"/>
-    <col min="4" max="256" width="12.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="63.625" style="8" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="B2" t="s" s="3">
+    <row r="1" spans="2:3" ht="2" customHeight="1"/>
+    <row r="2" spans="2:3" ht="20.5" customHeight="1">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="B3" t="s" s="10">
+    <row r="3" spans="2:3" ht="20.5" customHeight="1">
+      <c r="B3" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="B4" t="s" s="10">
+    <row r="4" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B4" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="B5" t="s" s="10">
+    <row r="5" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B5" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="68.35" customHeight="1">
-      <c r="B6" t="s" s="10">
+    <row r="6" spans="2:3" ht="68.25" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="7" ht="44.35" customHeight="1">
-      <c r="B7" t="s" s="10">
+    <row r="7" spans="2:3" ht="44.25" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="B8" t="s" s="10">
+    <row r="8" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B8" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="B9" t="s" s="10">
+    <row r="9" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B9" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="B11" t="s" s="11">
+    <row r="11" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B11" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="B12" t="s" s="10">
+    <row r="12" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="13" ht="44.35" customHeight="1">
-      <c r="B13" t="s" s="10">
+    <row r="13" spans="2:3" ht="44.25" customHeight="1">
+      <c r="B13" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="B14" t="s" s="10">
+    <row r="14" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B14" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="B15" t="s" s="10">
+    <row r="15" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B15" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="B16" t="s" s="10">
+    <row r="16" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B16" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="B18" t="s" s="11">
+    <row r="18" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B18" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="B19" t="s" s="10">
+    <row r="19" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B19" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="B20" t="s" s="10">
+    <row r="20" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B20" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" s="4" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="B21" t="s" s="10">
+    <row r="21" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B21" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="B22" t="s" s="10">
+    <row r="22" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B22" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="C22" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="B23" t="s" s="10">
+    <row r="23" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B23" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C23" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="B24" s="10"/>
-      <c r="C24" s="5"/>
+    <row r="24" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
     </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="B25" t="s" s="11">
+    <row r="25" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
-    <row r="26" ht="44.35" customHeight="1">
-      <c r="B26" t="s" s="10">
+    <row r="26" spans="2:3" ht="44.25" customHeight="1">
+      <c r="B26" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C26" t="s" s="5">
+      <c r="C26" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="27" ht="32.35" customHeight="1">
-      <c r="B27" t="s" s="10">
+    <row r="27" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B27" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+    <row r="28" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
     </row>
-    <row r="29" ht="32.35" customHeight="1">
-      <c r="B29" t="s" s="11">
+    <row r="29" spans="2:3" ht="32.25" customHeight="1">
+      <c r="B29" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" s="4" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+    <row r="30" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
     </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
+    <row r="31" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
     </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
+    <row r="32" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I16"/>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.30469" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.8594" style="14" customWidth="1"/>
-    <col min="3" max="3" width="6.47656" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.0156" style="14" customWidth="1"/>
-    <col min="5" max="5" width="27.2656" style="14" customWidth="1"/>
-    <col min="6" max="6" width="45.1094" style="14" customWidth="1"/>
-    <col min="7" max="7" width="5.21094" style="14" customWidth="1"/>
-    <col min="8" max="8" width="5.21094" style="14" customWidth="1"/>
-    <col min="9" max="9" width="5.21094" style="14" customWidth="1"/>
-    <col min="10" max="256" width="9.05469" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.125" style="13" customWidth="1"/>
+    <col min="7" max="9" width="5.25" style="13" customWidth="1"/>
+    <col min="10" max="256" width="9" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="56.55" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" ht="56.5" customHeight="1">
+      <c r="A3" s="3">
         <v>155</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" ht="200.35" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A4" s="3">
         <v>160</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="G4" t="s" s="4">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="236.35" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" ht="236.25" customHeight="1">
+      <c r="A5" s="3">
         <v>162</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="380.35" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9" ht="380.25" customHeight="1">
+      <c r="A6" s="3">
         <v>164</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G6" t="s" s="4">
+      <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="188.35" customHeight="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A7" s="3">
         <v>165</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="380.35" customHeight="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" ht="380.25" customHeight="1">
+      <c r="A8" s="3">
         <v>166</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G8" t="s" s="4">
+      <c r="G8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="80.35" customHeight="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" ht="80.25" customHeight="1">
+      <c r="A9" s="3">
         <v>168</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="116.35" customHeight="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" ht="116.25" customHeight="1">
+      <c r="A10" s="3">
         <v>169</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="32.35" customHeight="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A11" s="3">
         <v>171</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="68.35" customHeight="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A12" s="3">
         <v>172</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="13" ht="272.35" customHeight="1">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" ht="272.25" customHeight="1">
+      <c r="A13" s="3">
         <v>173</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" ht="68.35" customHeight="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:9" ht="68.25" customHeight="1">
+      <c r="A14" s="3">
         <v>174</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="B14" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="15" ht="152.35" customHeight="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:9" ht="152.25" customHeight="1">
+      <c r="A15" s="3">
         <v>179</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
-    <row r="16" ht="212.35" customHeight="1">
-      <c r="A16" s="4">
+    <row r="16" spans="1:9" ht="212.25" customHeight="1">
+      <c r="A16" s="3">
         <v>187</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I16" t="s" s="4">
+      <c r="I16" s="3" t="s">
         <v>320</v>
       </c>
     </row>
@@ -37246,350 +37847,1247 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="B6" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="B7" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="B8" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="B9" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="B10" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="B11" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="B15" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="B16" r:id="rId13" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.71094" style="15" customWidth="1"/>
-    <col min="5" max="5" width="27.7969" style="15" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="15" customWidth="1"/>
-    <col min="7" max="7" width="4.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4" style="15" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="15" customWidth="1"/>
-    <col min="10" max="256" width="12.25" style="15" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="4" style="14" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="14" customWidth="1"/>
+    <col min="10" max="256" width="12.25" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="34.55" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A2" s="3">
         <v>156</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" t="s" s="4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" ht="47.35" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" ht="47.25" customHeight="1">
+      <c r="A3" s="3">
         <v>157</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" t="s" s="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="12"/>
     </row>
-    <row r="4" ht="60.35" customHeight="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" ht="60.25" customHeight="1">
+      <c r="A4" s="3">
         <v>158</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" t="s" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" ht="60.35" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" ht="60.25" customHeight="1">
+      <c r="A5" s="3">
         <v>159</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" t="s" s="4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="12"/>
     </row>
-    <row r="6" ht="60.35" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9" ht="60.25" customHeight="1">
+      <c r="A6" s="3">
         <v>159</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" t="s" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="12"/>
     </row>
-    <row r="7" ht="21.35" customHeight="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" ht="21.25" customHeight="1">
+      <c r="A7" s="3">
         <v>161</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" t="s" s="4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="12"/>
     </row>
-    <row r="8" ht="21.35" customHeight="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" ht="21.25" customHeight="1">
+      <c r="A8" s="3">
         <v>163</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" t="s" s="4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="12"/>
     </row>
-    <row r="9" ht="34.35" customHeight="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" ht="34.25" customHeight="1">
+      <c r="A9" s="3">
         <v>167</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" t="s" s="4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="15"/>
     </row>
-    <row r="10" ht="34.35" customHeight="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" ht="34.25" customHeight="1">
+      <c r="A10" s="3">
         <v>170</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" t="s" s="4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="B8" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="B9" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="B10" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:C11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="79.8281" style="17" customWidth="1"/>
-    <col min="4" max="256" width="12.25" style="17" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="79.875" style="16" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="B2" t="s" s="3">
+    <row r="1" spans="2:3" ht="2" customHeight="1"/>
+    <row r="2" spans="2:3" ht="20.5" customHeight="1">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="3" ht="152.55" customHeight="1">
-      <c r="B3" t="s" s="10">
+    <row r="3" spans="2:3" ht="152.5" customHeight="1">
+      <c r="B3" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="4" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="4" ht="92.35" customHeight="1">
-      <c r="B4" t="s" s="10">
+    <row r="4" spans="2:3" ht="92.25" customHeight="1">
+      <c r="B4" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="4" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="5"/>
+    <row r="5" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="107.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17">
+      <c r="A1" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17">
+      <c r="A2" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17">
+      <c r="A3" s="19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17">
+      <c r="A4" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17">
+      <c r="A5" s="19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17">
+      <c r="A6" s="19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17">
+      <c r="A7" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17">
+      <c r="A8" s="19" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="34">
+      <c r="A9" s="19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17">
+      <c r="A10" s="19" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17">
+      <c r="A11" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="51">
+      <c r="A12" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="68">
+      <c r="A13" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17">
+      <c r="A14" s="19" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17">
+      <c r="A15" s="19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="34">
+      <c r="A16" s="19" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17">
+      <c r="A17" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17">
+      <c r="A18" s="19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="34">
+      <c r="A19" s="19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17">
+      <c r="A20" s="19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17">
+      <c r="A21" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17">
+      <c r="A22" s="19" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17">
+      <c r="A23" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17">
+      <c r="A24" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17">
+      <c r="A25" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17">
+      <c r="A26" s="19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17">
+      <c r="A27" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17">
+      <c r="A28" s="19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17">
+      <c r="A29" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17">
+      <c r="A30" s="19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17">
+      <c r="A31" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17">
+      <c r="A32" s="19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="34">
+      <c r="A33" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17">
+      <c r="A34" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17">
+      <c r="A35" s="19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17">
+      <c r="A36" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17">
+      <c r="A37" s="19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17">
+      <c r="A38" s="19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17">
+      <c r="A39" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17">
+      <c r="A40" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17">
+      <c r="A41" s="19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="34">
+      <c r="A42" s="19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17">
+      <c r="A43" s="19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17">
+      <c r="A44" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17">
+      <c r="A45" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17">
+      <c r="A46" s="19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17">
+      <c r="A47" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17">
+      <c r="A48" s="19" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17">
+      <c r="A49" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17">
+      <c r="A50" s="19" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17">
+      <c r="A51" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17">
+      <c r="A52" s="19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="17">
+      <c r="A53" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17">
+      <c r="A54" s="19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17">
+      <c r="A55" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17">
+      <c r="A56" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34">
+      <c r="A57" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="17">
+      <c r="A58" s="19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17">
+      <c r="A59" s="19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="68">
+      <c r="A60" s="19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="34">
+      <c r="A61" s="19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17">
+      <c r="A62" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17">
+      <c r="A63" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="34">
+      <c r="A64" s="19" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17">
+      <c r="A65" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17">
+      <c r="A66" s="19" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17">
+      <c r="A67" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="34">
+      <c r="A68" s="19" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17">
+      <c r="A69" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="34">
+      <c r="A70" s="19" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="17">
+      <c r="A71" s="19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="17">
+      <c r="A72" s="19" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="17">
+      <c r="A73" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="17">
+      <c r="A74" s="19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="17">
+      <c r="A75" s="19" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="34">
+      <c r="A76" s="19" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17">
+      <c r="A77" s="19" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="17">
+      <c r="A78" s="19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17">
+      <c r="A79" s="19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17">
+      <c r="A80" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="17">
+      <c r="A81" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17">
+      <c r="A82" s="19" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="17">
+      <c r="A83" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="17">
+      <c r="A84" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17">
+      <c r="A85" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17">
+      <c r="A86" s="19" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17">
+      <c r="A87" s="19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17">
+      <c r="A88" s="19" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="17">
+      <c r="A89" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="17">
+      <c r="A90" s="19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="17">
+      <c r="A91" s="19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17">
+      <c r="A93" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17">
+      <c r="A94" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17">
+      <c r="A95" s="19" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17">
+      <c r="A96" s="19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17">
+      <c r="A98" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17">
+      <c r="A99" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17">
+      <c r="A100" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="17">
+      <c r="A101" s="19" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="17">
+      <c r="A102" s="19" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17">
+      <c r="A103" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17">
+      <c r="A104" s="19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17">
+      <c r="A105" s="19" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="34">
+      <c r="A106" s="19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="17">
+      <c r="A107" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="34">
+      <c r="A108" s="19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="68">
+      <c r="A109" s="19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="17">
+      <c r="A110" s="19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="17">
+      <c r="A111" s="19" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="17">
+      <c r="A112" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17">
+      <c r="A113" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17">
+      <c r="A114" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="17">
+      <c r="A115" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="17">
+      <c r="A116" s="19" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="17">
+      <c r="A117" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="85">
+      <c r="A118" s="19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="34">
+      <c r="A119" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="17">
+      <c r="A120" s="19" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="34">
+      <c r="A121" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="17">
+      <c r="A122" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="17">
+      <c r="A123" s="19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="17">
+      <c r="A124" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="17">
+      <c r="A125" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="17">
+      <c r="A126" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="17">
+      <c r="A127" s="19" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="17">
+      <c r="A128" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="34">
+      <c r="A129" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="34">
+      <c r="A130" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="34">
+      <c r="A131" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="100.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18">
+      <c r="A4" s="20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18">
+      <c r="A7" s="20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="32">
+      <c r="A8" s="21" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="21" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18">
+      <c r="A13" s="20" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17">
+      <c r="A14" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18">
+      <c r="A16" s="20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17">
+      <c r="A17" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17">
+      <c r="A18" s="19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="34">
+      <c r="A19" s="19" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17">
+      <c r="A20" s="19" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="34">
+      <c r="A21" s="19" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="20" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18">
+      <c r="A26" s="20" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18">
+      <c r="A30" s="20" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="21" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17">
+      <c r="A38" s="19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17">
+      <c r="A39" s="19" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17">
+      <c r="A40" s="19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17">
+      <c r="A41" s="19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17">
+      <c r="A42" s="19" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17">
+      <c r="A43" s="19" t="s">
+        <v>804</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+    <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="A24" r:id="rId6"/>
+    <hyperlink ref="A27" r:id="rId7"/>
+    <hyperlink ref="A28" r:id="rId8"/>
+    <hyperlink ref="A31" r:id="rId9"/>
+    <hyperlink ref="A32" r:id="rId10"/>
+    <hyperlink ref="A35" r:id="rId11"/>
+    <hyperlink ref="A36" r:id="rId12"/>
+    <hyperlink ref="A2" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>